--- a/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
+++ b/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
@@ -806,118 +806,118 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Common Conditional Access Policies),(Citation: Okta Block Anonymizing Services),(Citation: AWS Data Perimeters)</t>
-  </si>
-  <si>
-    <t>(Citation: AdSecurity DCSync Sept 2015),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Replication ACL),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: STIG krbtgt reset),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft MS14-025)</t>
-  </si>
-  <si>
-    <t>(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Microsoft File Folder Exclusions),(Citation: Anomali Template Injection MAR 2018),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Token Protection 2023),(Citation: FireEye DLL Side-Loading),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Okta DPoP 2023)</t>
+    <t>(Citation: Okta Block Anonymizing Services),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: AWS Data Perimeters),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Microsoft Common Conditional Access Policies)</t>
+  </si>
+  <si>
+    <t>(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft MS14-025),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: STIG krbtgt reset),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity Kerberos GT Aug 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: SourceForge rkhunter),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft File Folder Exclusions),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack),(Citation: Microsoft Token Protection 2023),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Okta DPoP 2023),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview)</t>
   </si>
   <si>
     <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide)</t>
   </si>
   <si>
-    <t>(Citation: TCC macOS bypass),(Citation: AWS DB VPC),(Citation: Microsoft Sxstrace),(Citation: SpecterOps Certified Pre Owned),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Microsoft CreateProcess),(Citation: Mandiant Cloudy Logs 2023),(Citation: Kubernetes Hardening Guide),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Github UACMe),(Citation: Mandiant Azure AD Backdoors),(Citation: MagicWeb),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: audits linikatz),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: AWS Management Account Best Practices),(Citation: Vulnerability and Exploit Detector),(Citation: Powersploit),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Brining MimiKatz to Unix),(Citation: GitHub PSPKIAudit),(Citation: FireEye ADFS),(Citation: GitHub Bloodhound),(Citation: GitHub Certify),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Get-InboxRule),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Obfuscation),(Citation: Obfuscated scripts),(Citation: win10_asr),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft driver block rules)</t>
-  </si>
-  <si>
-    <t>(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: applescript signing),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Brining MimiKatz to Unix),(Citation: TechNet Credential Guard)</t>
-  </si>
-  <si>
-    <t>(Citation: Ready.gov IT DRP),(Citation: Rhino S3 Ransomware Part 2),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
+    <t>(Citation: Microsoft CreateProcess),(Citation: TCC macOS bypass),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Sxstrace),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Brining MimiKatz to Unix),(Citation: Mandiant Cloudy Logs 2023),(Citation: Powersploit),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Mandiant Azure AD Backdoors),(Citation: GitHub Bloodhound),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Preauthentication Jul 2012),(Citation: GitHub Certify),(Citation: audits linikatz),(Citation: Amazon S3 Security, 2019),(Citation: MagicWeb),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Vulnerability and Exploit Detector),(Citation: SpecterOps Certified Pre Owned),(Citation: AWS Management Account Best Practices),(Citation: Github UACMe),(Citation: GitHub PSPKIAudit),(Citation: AWS DB VPC),(Citation: Kifarunix - Task Scheduling in Linux)</t>
+  </si>
+  <si>
+    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Obfuscated scripts),(Citation: win10_asr),(Citation: Microsoft driver block rules)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Content trust in Docker),(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: TechNet Credential Guard),(Citation: Brining MimiKatz to Unix)</t>
+  </si>
+  <si>
+    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft BEC Campaign),(Citation: SpecterOps Certified Pre Owned),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Disable Autorun),(Citation: Electron Security 2),(Citation: NetSPI ClickOnce),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft Disable Macros),(Citation: ITSyndicate Disabling PHP functions),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Gmail Delegation),(Citation: MRWLabs Office Persistence Add-ins),(Citation: GitHub MOTW),(Citation: TechNet Screensaver GP),(Citation: Microsoft Disable DCOM),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: TechNet Removable Media Control),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Learn ClickOnce Config)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Primary Refresh Token),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Google Cloud Encryption Key Rotation),(Citation: Metcalf 2015)</t>
+    <t>(Citation: Microsoft Disable Autorun),(Citation: TechNet Removable Media Control),(Citation: Microsoft Learn ClickOnce Config),(Citation: Microsoft BEC Campaign),(Citation: Electron Security 2),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: GitHub MOTW),(Citation: TechNet Screensaver GP),(Citation: Gmail Delegation),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Network access Credential Manager),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable Macros),(Citation: SpecterOps Certified Pre Owned),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft Disable DCOM),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: NetSPI ClickOnce),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft ADV170021 Dec 2017),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft AlwaysInstallElevated 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Primary Refresh Token),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Azure Storage Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Metcalf 2015)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: NSA MS AppLocker),(Citation: Microsoft Windows Defender Application Control),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft Application Lockdown),(Citation: Microsoft Using Software Restriction ),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft WDAC),(Citation: Microsoft Driver Block Rules),(Citation: Kubernetes Security Context),(Citation: Kernel.org Restrict Kernel Module),(Citation: SANS Application Whitelisting),(Citation: Default VBS macros Blocking ),(Citation: Electron Security 3),(Citation: TechNet Applocker vs SRP),(Citation: LKM loading kernel restrictions),(Citation: Technospot Chrome Extensions GP),(Citation: Beechey 2010),(Citation: file_upload_attacks_pt2),(Citation: Wikibooks Grsecurity),(Citation: Kernel Self Protection Project),(Citation: Windows Commands JPCERT),(Citation: Dormann Dangers of VHD 2019),(Citation: Corio 2008)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Moving Beyond EMET),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Secure Host Baseline EMET),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: Wikipedia Control Flow Integrity)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT SMB Security),(Citation: Juniper DAI 2020),(Citation: Microsoft SMB Packet Signing),(Citation: ntlm_relaying_kerberos_del),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Preventing SMB),(Citation: CERT-EU DDoS March 2017),(Citation: RedLock Instance Metadata API 2018),(Citation: US-CERT APT Energy Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes Cloud Native Security),(Citation: Microsoft AKS Azure AD 2023),(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access),(Citation: Wikipedia 802.1x)</t>
+    <t>(Citation: Kernel.org Restrict Kernel Module),(Citation: file_upload_attacks_pt2),(Citation: Beechey 2010),(Citation: Wikibooks Grsecurity),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: SANS Application Whitelisting),(Citation: Microsoft WDAC),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes Security Context),(Citation: Microsoft Using Software Restriction ),(Citation: TechNet Applocker vs SRP),(Citation: Kernel Self Protection Project),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Application Lockdown),(Citation: Technospot Chrome Extensions GP),(Citation: Windows Commands JPCERT),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Windows Defender Application Control),(Citation: Electron Security 3),(Citation: Corio 2008),(Citation: Default VBS macros Blocking ),(Citation: Microsoft Driver Block Rules)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Commands JPCERT),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET),(Citation: NSA MS AppLocker),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP)</t>
+  </si>
+  <si>
+    <t>(Citation: RedLock Instance Metadata API 2018),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft SMB Packet Signing),(Citation: ntlm_relaying_kerberos_del),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT APT Energy Oct 2017),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT SMB Security),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: Juniper DAI 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access),(Citation: Wikipedia 802.1x),(Citation: Microsoft AKS Azure AD 2023),(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: Microsoft - Device Registration),(Citation: AWS - IAM Console Best Practices),(Citation: Evilginx 2 July 2018),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Berkley Secure),(Citation: Expel IO Evil in AWS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: CISA MFA PrintNightmare),(Citation: Cisco IOS Software Integrity Assurance - TACACS)</t>
-  </si>
-  <si>
-    <t>(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Anomali Template Injection MAR 2018),(Citation: University of Birmingham C2),(Citation: Cybereason Dissecting DGAs),(Citation: dhcp_serv_op_events),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: US-CERT-TA18-106A)</t>
+    <t>(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: CISA MFA PrintNightmare),(Citation: Evilginx 2 July 2018),(Citation: Microsoft - Device Registration),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: AWS - IAM Console Best Practices)</t>
+  </si>
+  <si>
+    <t>(Citation: dhcp_serv_op_events),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Anomali Template Injection MAR 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation),(Citation: University of Birmingham C2)</t>
   </si>
   <si>
     <t>(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design)</t>
   </si>
   <si>
-    <t>(Citation: Tilbury Windows Credentials),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft BITS),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: TechNet Removable Media Control),(Citation: Microsoft WDigest Mit),(Citation: Windows RDP Sessions),(Citation: TechNet RDP NLA),(Citation: Seqrite DoubleExtension),(Citation: UCF STIG Elevation Account Enumeration),(Citation: reagentc_cmd),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Apple Developer Doco Hardened Runtime),(Citation: SpectorOps Code Signing Dec 2017),(Citation: HowToGeek ShowExtension),(Citation: EnableMPRNotifications)</t>
+    <t>(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: reagentc_cmd),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: TechNet Server Operator Scheduled Task),(Citation: Windows RDP Sessions),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Seqrite DoubleExtension),(Citation: Tilbury Windows Credentials),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: EnableMPRNotifications),(Citation: Microsoft WDigest Mit),(Citation: TechNet RDP NLA),(Citation: Microsoft BITS)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: AWS - IAM Console Best Practices),(Citation: NIST 800-63-3),(Citation: store_pwd_rev_enc),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Kubernetes Service Accounts),(Citation: Microsoft runas),(Citation: Microsoft PS JEA),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Credential Theft),(Citation: Microsoft Process Wide Com Keys),(Citation: Kubernetes Hardening Guide),(Citation: TechNet Scheduling Priority),(Citation: FireEye WMI 2015),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Remote Use of Local),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft COM ACL),(Citation: MagicWeb),(Citation: Microsoft Securing Privileged Access),(Citation: TechNet Least Privilege),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: FireEye ADFS),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Replace Process Token),(Citation: Tilbury Windows Credentials),(Citation: ADSecurity AD Kerberos Attacks)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Graeber 2014)</t>
+    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Create Token),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft System Wide Com Keys),(Citation: Kubernetes Service Accounts),(Citation: FireEye ADFS),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Process Wide Com Keys),(Citation: TechNet Least Privilege),(Citation: Kubernetes Hardening Guide),(Citation: ADSecurity AD Kerberos Attacks),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Securing Privileged Access),(Citation: TechNet Scheduling Priority),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: MagicWeb),(Citation: Mandiant Azure Run Command 2021),(Citation: FireEye WMI 2015),(Citation: Microsoft COM ACL),(Citation: Kubernetes Admission Controllers),(Citation: Tilbury Windows Credentials),(Citation: TechNet Credential Theft),(Citation: Microsoft runas),(Citation: Microsoft PS JEA)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: piazza launch agent mitigation),(Citation: create_sym_links),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft ETW May 2018),(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Azure AD Admin Consent),(Citation: NetSPI ClickOnce)</t>
-  </si>
-  <si>
-    <t>(Citation: CloudSploit - Unused AWS Regions),(Citation: Microsoft 365 External Sharing),(Citation: Session Management Cheat Sheet),(Citation: Chromium HSTS),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Google Workspace External Sharing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: Token tactics),(Citation: Wikipedia HPKP),(Citation: Microsoft Anti Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Azure Subscription Policies),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: DNS-msft),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: ACSC Email Spoofing),(Citation: Cisco Securing SNMP)</t>
-  </si>
-  <si>
-    <t>(Citation: SensePost Outlook Home Page),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: Cisco Blog Legacy Device Attacks)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
-  </si>
-  <si>
-    <t>(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Kubernetes RBAC),(Citation: Microsoft ETW May 2018),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Symantec BITS May 2007),(Citation: Kubernetes Hardening Guide),(Citation: MDMProfileConfigMacOS),(Citation: Microsoft GPO Security Filtering),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Apple TN2459 Kernel Extensions),(Citation: Wald0 Guide to GPOs),(Citation: Office 365 Partner Relationships),(Citation: Expel IO Evil in AWS),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft WMI Filters),(Citation: Mandiant M-Trends 2020),(Citation: UCF STIG Symbolic Links),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft SolarWinds Customer Guidance)</t>
-  </si>
-  <si>
-    <t>(Citation: Re-Open windows on Mac),(Citation: SWAT-hospital),(Citation: CISA Phishing),(Citation: Cyber Safety Review Board: Lapsus)</t>
+    <t>(Citation: create_sym_links),(Citation: Microsoft W32Time May 2017),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: win_xml_evt_log),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: piazza launch agent mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: NetSPI ClickOnce),(Citation: Microsoft Azure AD Admin Consent)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Anti Spoofing),(Citation: ACSC Email Spoofing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Chromium HSTS),(Citation: Google Workspace External Sharing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Palo Alto Office Test Sofacy),(Citation: Token tactics),(Citation: DNS-msft),(Citation: CloudSploit - Unused AWS Regions),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Azure Subscription Policies),(Citation: Session Management Cheat Sheet),(Citation: Cisco Securing SNMP),(Citation: Wikipedia HPKP),(Citation: Microsoft 365 External Sharing)</t>
+  </si>
+  <si>
+    <t>(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: SensePost Outlook Forms),(Citation: Cisco Blog Legacy Device Attacks),(Citation: Github UACMe),(Citation: SensePost Outlook Home Page)</t>
+  </si>
+  <si>
+    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
+  </si>
+  <si>
+    <t>(Citation: Wald0 Guide to GPOs),(Citation: Apple TN2459 Kernel Extensions),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Expel IO Evil in AWS),(Citation: UCF STIG Symbolic Links),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Symantec BITS May 2007),(Citation: Kubernetes RBAC),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft WMI Filters),(Citation: Microsoft ETW May 2018),(Citation: Office 365 Partner Relationships),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft GPO Security Filtering),(Citation: MDMProfileConfigMacOS),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft SolarWinds Customer Guidance)</t>
+  </si>
+  <si>
+    <t>(Citation: Re-Open windows on Mac),(Citation: SWAT-hospital),(Citation: Cyber Safety Review Board: Lapsus),(Citation: CISA Phishing)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
+++ b/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
@@ -806,118 +806,118 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>(Citation: Okta Block Anonymizing Services),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: AWS Data Perimeters),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Microsoft Common Conditional Access Policies)</t>
-  </si>
-  <si>
-    <t>(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft MS14-025),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: STIG krbtgt reset),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity Kerberos GT Aug 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: SourceForge rkhunter),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft File Folder Exclusions),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack),(Citation: Microsoft Token Protection 2023),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Okta DPoP 2023),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft CreateProcess),(Citation: TCC macOS bypass),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Sxstrace),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Brining MimiKatz to Unix),(Citation: Mandiant Cloudy Logs 2023),(Citation: Powersploit),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Mandiant Azure AD Backdoors),(Citation: GitHub Bloodhound),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Preauthentication Jul 2012),(Citation: GitHub Certify),(Citation: audits linikatz),(Citation: Amazon S3 Security, 2019),(Citation: MagicWeb),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Vulnerability and Exploit Detector),(Citation: SpecterOps Certified Pre Owned),(Citation: AWS Management Account Best Practices),(Citation: Github UACMe),(Citation: GitHub PSPKIAudit),(Citation: AWS DB VPC),(Citation: Kifarunix - Task Scheduling in Linux)</t>
-  </si>
-  <si>
-    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Obfuscated scripts),(Citation: win10_asr),(Citation: Microsoft driver block rules)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Content trust in Docker),(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: TechNet Credential Guard),(Citation: Brining MimiKatz to Unix)</t>
-  </si>
-  <si>
-    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Disable Autorun),(Citation: TechNet Removable Media Control),(Citation: Microsoft Learn ClickOnce Config),(Citation: Microsoft BEC Campaign),(Citation: Electron Security 2),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: GitHub MOTW),(Citation: TechNet Screensaver GP),(Citation: Gmail Delegation),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Network access Credential Manager),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable Macros),(Citation: SpecterOps Certified Pre Owned),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft Disable DCOM),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: NetSPI ClickOnce),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft ADV170021 Dec 2017),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft AlwaysInstallElevated 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Primary Refresh Token),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Azure Storage Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Metcalf 2015)</t>
+    <t>(Citation: Okta Block Anonymizing Services),(Citation: Microsoft Common Conditional Access Policies),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: AWS Data Perimeters)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Protected Users Security Group),(Citation: STIG krbtgt reset),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Mimikatz DCSync),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft MS14-025),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: SpecterOps Certified Pre Owned)</t>
+  </si>
+  <si>
+    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Microsoft File Folder Exclusions),(Citation: Microsoft AMSI June 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Comparitech Replay Attack),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Okta DPoP 2023),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Token Protection 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye ADFS),(Citation: Brining MimiKatz to Unix),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: audits linikatz),(Citation: MagicWeb),(Citation: Microsoft Get-InboxRule),(Citation: SpecterOps Certified Pre Owned),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: TCC macOS bypass),(Citation: Microsoft Dynamic-Link Library Security),(Citation: AWS DB VPC),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: GitHub PSPKIAudit),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Github UACMe),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019),(Citation: GitHub Bloodhound),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Powersploit),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft CreateProcess),(Citation: Mandiant Azure AD Backdoors),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: GitHub Certify),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Vulnerability and Exploit Detector),(Citation: AWS Management Account Best Practices),(Citation: Microsoft Sxstrace)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft ASR Nov 2017),(Citation: Obfuscated scripts),(Citation: win10_asr),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TechNet Secure Boot Process)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: applescript signing),(Citation: Content trust in Azure Container Registry)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Credential Guard),(Citation: Brining MimiKatz to Unix),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Workspace Data Loss Prevention),(Citation: Microsoft Purview Data Loss Prevention)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Disable Macros),(Citation: Symantec SSH and ssh-agent),(Citation: GitHub MOTW),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: TechNet Removable Media Control),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: SpecterOps Certified Pre Owned),(Citation: Gmail Delegation),(Citation: Microsoft BEC Campaign),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable DCOM),(Citation: Microsoft Learn ClickOnce Config),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: TechNet Screensaver GP),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: NetSPI ClickOnce),(Citation: Electron Security 2),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Disable Autorun),(Citation: ITSyndicate Disabling PHP functions),(Citation: MRWLabs Office Persistence Add-ins),(Citation: ADSecurity Windows Secure Baseline)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Primary Refresh Token),(Citation: SpecterOps Certified Pre Owned),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Kernel.org Restrict Kernel Module),(Citation: file_upload_attacks_pt2),(Citation: Beechey 2010),(Citation: Wikibooks Grsecurity),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: SANS Application Whitelisting),(Citation: Microsoft WDAC),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes Security Context),(Citation: Microsoft Using Software Restriction ),(Citation: TechNet Applocker vs SRP),(Citation: Kernel Self Protection Project),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Application Lockdown),(Citation: Technospot Chrome Extensions GP),(Citation: Windows Commands JPCERT),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Windows Defender Application Control),(Citation: Electron Security 3),(Citation: Corio 2008),(Citation: Default VBS macros Blocking ),(Citation: Microsoft Driver Block Rules)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Commands JPCERT),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET),(Citation: NSA MS AppLocker),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP)</t>
-  </si>
-  <si>
-    <t>(Citation: RedLock Instance Metadata API 2018),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft SMB Packet Signing),(Citation: ntlm_relaying_kerberos_del),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT APT Energy Oct 2017),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT SMB Security),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: Juniper DAI 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access),(Citation: Wikipedia 802.1x),(Citation: Microsoft AKS Azure AD 2023),(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security)</t>
+    <t>(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Default VBS macros Blocking ),(Citation: Wikibooks Grsecurity),(Citation: Microsoft PowerShell CLM),(Citation: Beechey 2010),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: LKM loading kernel restrictions),(Citation: Corio 2008),(Citation: Increasing Linux kernel integrity),(Citation: Electron Security 3),(Citation: Kubernetes Security Context),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft WDAC),(Citation: Microsoft Driver Block Rules),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Application Lockdown),(Citation: Dormann Dangers of VHD 2019),(Citation: file_upload_attacks_pt2),(Citation: SANS Application Whitelisting),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft Using Software Restriction ),(Citation: Kernel Self Protection Project),(Citation: NSA MS AppLocker),(Citation: Windows Commands JPCERT),(Citation: Kernel.org Restrict Kernel Module),(Citation: Technospot Chrome Extensions GP)</t>
+  </si>
+  <si>
+    <t>(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: Wikipedia Control Flow Integrity),(Citation: Beechey 2010),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Windows Commands JPCERT),(Citation: Secure Host Baseline EMET),(Citation: TechNet Moving Beyond EMET)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT APT Energy Oct 2017),(Citation: Juniper DAI 2020),(Citation: byt3bl33d3r NTLM Relaying),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Secure Ideas SMB Relay),(Citation: Microsoft SMB Packet Signing),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft Preventing SMB),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT SMB Security),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Kubernetes Cloud Native Security),(Citation: Docker Daemon Socket Protect)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: CISA MFA PrintNightmare),(Citation: Evilginx 2 July 2018),(Citation: Microsoft - Device Registration),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: AWS - IAM Console Best Practices)</t>
-  </si>
-  <si>
-    <t>(Citation: dhcp_serv_op_events),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Anomali Template Injection MAR 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation),(Citation: University of Birmingham C2)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: reagentc_cmd),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: TechNet Server Operator Scheduled Task),(Citation: Windows RDP Sessions),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Seqrite DoubleExtension),(Citation: Tilbury Windows Credentials),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: EnableMPRNotifications),(Citation: Microsoft WDigest Mit),(Citation: TechNet RDP NLA),(Citation: Microsoft BITS)</t>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: AWS - IAM Console Best Practices),(Citation: Evilginx 2 July 2018),(Citation: Berkley Secure),(Citation: CISA MFA PrintNightmare),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Expel IO Evil in AWS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Microsoft - Device Registration)</t>
+  </si>
+  <si>
+    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: University of Birmingham C2),(Citation: dhcp_serv_op_events),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT-TA18-106A),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft BITS),(Citation: Seqrite DoubleExtension),(Citation: Tilbury Windows Credentials),(Citation: HowToGeek ShowExtension),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: UCF STIG Elevation Account Enumeration),(Citation: reagentc_cmd),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: EnableMPRNotifications),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet RDP NLA),(Citation: TechNet Removable Media Control),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: Windows Anonymous Enumeration of SAM Accounts)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Create Token),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft System Wide Com Keys),(Citation: Kubernetes Service Accounts),(Citation: FireEye ADFS),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Process Wide Com Keys),(Citation: TechNet Least Privilege),(Citation: Kubernetes Hardening Guide),(Citation: ADSecurity AD Kerberos Attacks),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Securing Privileged Access),(Citation: TechNet Scheduling Priority),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: MagicWeb),(Citation: Mandiant Azure Run Command 2021),(Citation: FireEye WMI 2015),(Citation: Microsoft COM ACL),(Citation: Kubernetes Admission Controllers),(Citation: Tilbury Windows Credentials),(Citation: TechNet Credential Theft),(Citation: Microsoft runas),(Citation: Microsoft PS JEA)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA)</t>
+    <t>(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft COM ACL),(Citation: FireEye ADFS),(Citation: Microsoft Replace Process Token),(Citation: TechNet Least Privilege),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: MagicWeb),(Citation: Microsoft System Wide Com Keys),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: TechNet Credential Theft),(Citation: ADSecurity AD Kerberos Attacks),(Citation: FireEye WMI 2015),(Citation: TechNet Scheduling Priority),(Citation: Mandiant Azure Run Command 2021),(Citation: Kubernetes Hardening Guide),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft runas),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Tilbury Windows Credentials),(Citation: Kubernetes Service Accounts),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft PS JEA)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA Protection Mar 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: create_sym_links),(Citation: Microsoft W32Time May 2017),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: win_xml_evt_log),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: piazza launch agent mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017)</t>
+    <t>(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft W32Time May 2017),(Citation: win_xml_evt_log),(Citation: create_sym_links),(Citation: Microsoft ETW May 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
+  </si>
+  <si>
+    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals)</t>
   </si>
   <si>
     <t>(Citation: NetSPI ClickOnce),(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Anti Spoofing),(Citation: ACSC Email Spoofing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Chromium HSTS),(Citation: Google Workspace External Sharing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Palo Alto Office Test Sofacy),(Citation: Token tactics),(Citation: DNS-msft),(Citation: CloudSploit - Unused AWS Regions),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Azure Subscription Policies),(Citation: Session Management Cheat Sheet),(Citation: Cisco Securing SNMP),(Citation: Wikipedia HPKP),(Citation: Microsoft 365 External Sharing)</t>
-  </si>
-  <si>
-    <t>(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: SensePost Outlook Forms),(Citation: Cisco Blog Legacy Device Attacks),(Citation: Github UACMe),(Citation: SensePost Outlook Home Page)</t>
+    <t>(Citation: ACSC Email Spoofing),(Citation: Google Workspace External Sharing),(Citation: CloudSploit - Unused AWS Regions),(Citation: Wikipedia HPKP),(Citation: Token tactics),(Citation: Enigma Reviving DDE Jan 2018),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: DNS-msft),(Citation: Palo Alto Office Test Sofacy),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Cisco Securing SNMP),(Citation: Microsoft 365 External Sharing),(Citation: Microsoft Anti Spoofing),(Citation: Session Management Cheat Sheet),(Citation: Chromium HSTS),(Citation: Azure Subscription Policies)</t>
+  </si>
+  <si>
+    <t>(Citation: MS14-025),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page),(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Forms),(Citation: Github UACMe)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: Wald0 Guide to GPOs),(Citation: Apple TN2459 Kernel Extensions),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Expel IO Evil in AWS),(Citation: UCF STIG Symbolic Links),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Symantec BITS May 2007),(Citation: Kubernetes RBAC),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft WMI Filters),(Citation: Microsoft ETW May 2018),(Citation: Office 365 Partner Relationships),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft GPO Security Filtering),(Citation: MDMProfileConfigMacOS),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft SolarWinds Customer Guidance)</t>
-  </si>
-  <si>
-    <t>(Citation: Re-Open windows on Mac),(Citation: SWAT-hospital),(Citation: Cyber Safety Review Board: Lapsus),(Citation: CISA Phishing)</t>
+    <t>(Citation: Symantec BITS May 2007),(Citation: Apple TN2459 Kernel Extensions),(Citation: Expel IO Evil in AWS),(Citation: MDMProfileConfigMacOS),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes RBAC),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Office 365 Partner Relationships),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft ETW May 2018),(Citation: Microsoft GPO Security Filtering),(Citation: Wald0 Guide to GPOs),(Citation: Mandiant M-Trends 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac),(Citation: Cyber Safety Review Board: Lapsus),(Citation: SWAT-hospital)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
+++ b/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
@@ -806,115 +806,115 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>(Citation: Okta Block Anonymizing Services),(Citation: Microsoft Common Conditional Access Policies),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: AWS Data Perimeters)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Protected Users Security Group),(Citation: STIG krbtgt reset),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Mimikatz DCSync),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft MS14-025),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: SpecterOps Certified Pre Owned)</t>
-  </si>
-  <si>
-    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Microsoft File Folder Exclusions),(Citation: Microsoft AMSI June 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Comparitech Replay Attack),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Okta DPoP 2023),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Token Protection 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye ADFS),(Citation: Brining MimiKatz to Unix),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: audits linikatz),(Citation: MagicWeb),(Citation: Microsoft Get-InboxRule),(Citation: SpecterOps Certified Pre Owned),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: TCC macOS bypass),(Citation: Microsoft Dynamic-Link Library Security),(Citation: AWS DB VPC),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: GitHub PSPKIAudit),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Github UACMe),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019),(Citation: GitHub Bloodhound),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Powersploit),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft CreateProcess),(Citation: Mandiant Azure AD Backdoors),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: GitHub Certify),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Vulnerability and Exploit Detector),(Citation: AWS Management Account Best Practices),(Citation: Microsoft Sxstrace)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ASR Nov 2017),(Citation: Obfuscated scripts),(Citation: win10_asr),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TechNet Secure Boot Process)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: applescript signing),(Citation: Content trust in Azure Container Registry)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Credential Guard),(Citation: Brining MimiKatz to Unix),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Workspace Data Loss Prevention),(Citation: Microsoft Purview Data Loss Prevention)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Disable Macros),(Citation: Symantec SSH and ssh-agent),(Citation: GitHub MOTW),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: TechNet Removable Media Control),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: SpecterOps Certified Pre Owned),(Citation: Gmail Delegation),(Citation: Microsoft BEC Campaign),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable DCOM),(Citation: Microsoft Learn ClickOnce Config),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: TechNet Screensaver GP),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: NetSPI ClickOnce),(Citation: Electron Security 2),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Disable Autorun),(Citation: ITSyndicate Disabling PHP functions),(Citation: MRWLabs Office Persistence Add-ins),(Citation: ADSecurity Windows Secure Baseline)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Primary Refresh Token),(Citation: SpecterOps Certified Pre Owned),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+    <t>(Citation: Okta Block Anonymizing Services),(Citation: AWS Data Perimeters),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Common Conditional Access Policies),(Citation: Microsoft Developer Support Power Apps Conditional Access)</t>
+  </si>
+  <si>
+    <t>(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft MS14-025),(Citation: AdSecurity DCSync Sept 2015),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: STIG krbtgt reset),(Citation: Microsoft Replication ACL),(Citation: ADSecurity Mimikatz DCSync)</t>
+  </si>
+  <si>
+    <t>(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Microsoft File Folder Exclusions),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Okta DPoP 2023),(Citation: Microsoft Token Protection 2023),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View)</t>
+  </si>
+  <si>
+    <t>(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: AWS DB VPC),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: MagicWeb),(Citation: audits linikatz),(Citation: FireEye ADFS),(Citation: Github UACMe),(Citation: Microsoft Get-InboxRule),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Amazon S3 Security, 2019),(Citation: TCC macOS bypass),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: GitHub Certify),(Citation: Brining MimiKatz to Unix),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: GitHub Bloodhound),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Sxstrace),(Citation: Powersploit),(Citation: Mandiant Azure AD Backdoors),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: AWS Management Account Best Practices),(Citation: GitHub PSPKIAudit),(Citation: Microsoft CreateProcess),(Citation: Mandiant Cloudy Logs 2023),(Citation: Vulnerability and Exploit Detector),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft_rec_block_rules),(Citation: Obfuscated scripts),(Citation: Microsoft ASR Obfuscation),(Citation: win10_asr),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies)</t>
+  </si>
+  <si>
+    <t>(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry),(Citation: applescript signing),(Citation: Microsoft Learn ClickOnce and Authenticode)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Brining MimiKatz to Unix),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
+  </si>
+  <si>
+    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP),(Citation: Rhino S3 Ransomware Part 2)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Learn ClickOnce Config),(Citation: Electron Security 2),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: ITSyndicate Disabling PHP functions),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable Autorun),(Citation: Gmail Delegation),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: TechNet Screensaver GP),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft Network access Credential Manager),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft BEC Campaign),(Citation: Symantec SSH and ssh-agent),(Citation: TechNet Removable Media Control),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable DCOM),(Citation: GitHub MOTW),(Citation: NetSPI ClickOnce),(Citation: Microsoft Disable VBA Jan 2020),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Metcalf 2015),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Default VBS macros Blocking ),(Citation: Wikibooks Grsecurity),(Citation: Microsoft PowerShell CLM),(Citation: Beechey 2010),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: LKM loading kernel restrictions),(Citation: Corio 2008),(Citation: Increasing Linux kernel integrity),(Citation: Electron Security 3),(Citation: Kubernetes Security Context),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft WDAC),(Citation: Microsoft Driver Block Rules),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Application Lockdown),(Citation: Dormann Dangers of VHD 2019),(Citation: file_upload_attacks_pt2),(Citation: SANS Application Whitelisting),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft Using Software Restriction ),(Citation: Kernel Self Protection Project),(Citation: NSA MS AppLocker),(Citation: Windows Commands JPCERT),(Citation: Kernel.org Restrict Kernel Module),(Citation: Technospot Chrome Extensions GP)</t>
-  </si>
-  <si>
-    <t>(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: Wikipedia Control Flow Integrity),(Citation: Beechey 2010),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Windows Commands JPCERT),(Citation: Secure Host Baseline EMET),(Citation: TechNet Moving Beyond EMET)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT APT Energy Oct 2017),(Citation: Juniper DAI 2020),(Citation: byt3bl33d3r NTLM Relaying),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Secure Ideas SMB Relay),(Citation: Microsoft SMB Packet Signing),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft Preventing SMB),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT SMB Security),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Kubernetes Cloud Native Security),(Citation: Docker Daemon Socket Protect)</t>
+    <t>(Citation: Corio 2008),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Driver Block Rules),(Citation: NSA MS AppLocker),(Citation: Microsoft Windows Defender Application Control),(Citation: Kernel Self Protection Project),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: LKM loading kernel restrictions),(Citation: Increasing Linux kernel integrity),(Citation: Default VBS macros Blocking ),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft Using Software Restriction ),(Citation: Kubernetes Security Context),(Citation: SANS Application Whitelisting),(Citation: Kernel.org Restrict Kernel Module),(Citation: Windows Commands JPCERT),(Citation: Wikibooks Grsecurity),(Citation: Electron Security 3),(Citation: TechNet Applocker vs SRP),(Citation: Beechey 2010),(Citation: Dormann Dangers of VHD 2019),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Application Lockdown),(Citation: Kubernetes Hardening Guide),(Citation: file_upload_attacks_pt2),(Citation: Microsoft WDAC)</t>
+  </si>
+  <si>
+    <t>(Citation: Corio 2008),(Citation: TechNet Applocker vs SRP),(Citation: TechNet Moving Beyond EMET),(Citation: NSA MS AppLocker),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Windows Commands JPCERT),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT APT Energy Oct 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Juniper DAI 2020),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT SMB Security),(Citation: Microsoft SMB Packet Signing),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: ntlm_relaying_kerberos_del),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access),(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: AWS - IAM Console Best Practices),(Citation: Evilginx 2 July 2018),(Citation: Berkley Secure),(Citation: CISA MFA PrintNightmare),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Expel IO Evil in AWS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Microsoft - Device Registration)</t>
-  </si>
-  <si>
-    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: University of Birmingham C2),(Citation: dhcp_serv_op_events),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT-TA18-106A),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft BITS),(Citation: Seqrite DoubleExtension),(Citation: Tilbury Windows Credentials),(Citation: HowToGeek ShowExtension),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: UCF STIG Elevation Account Enumeration),(Citation: reagentc_cmd),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: EnableMPRNotifications),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet RDP NLA),(Citation: TechNet Removable Media Control),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: Windows Anonymous Enumeration of SAM Accounts)</t>
+    <t>(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Berkley Secure),(Citation: CISA MFA PrintNightmare),(Citation: Microsoft Nobelium Admin Privileges),(Citation: AWS - IAM Console Best Practices),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft - Device Registration),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Expel IO Evil in AWS),(Citation: Evilginx 2 July 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events),(Citation: Cybereason Dissecting DGAs),(Citation: University of Birmingham C2),(Citation: US-CERT-TA18-106A),(Citation: Anomali Template Injection MAR 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: NSA Spotting),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts)</t>
+  </si>
+  <si>
+    <t>(Citation: Seqrite DoubleExtension),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: reagentc_cmd),(Citation: TechNet RDP NLA),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: Microsoft BITS),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: TechNet Server Operator Scheduled Task),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Tilbury Windows Credentials),(Citation: EnableMPRNotifications),(Citation: Microsoft GPO Bluetooth FEB 2009)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft COM ACL),(Citation: FireEye ADFS),(Citation: Microsoft Replace Process Token),(Citation: TechNet Least Privilege),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: MagicWeb),(Citation: Microsoft System Wide Com Keys),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: TechNet Credential Theft),(Citation: ADSecurity AD Kerberos Attacks),(Citation: FireEye WMI 2015),(Citation: TechNet Scheduling Priority),(Citation: Mandiant Azure Run Command 2021),(Citation: Kubernetes Hardening Guide),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft runas),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Tilbury Windows Credentials),(Citation: Kubernetes Service Accounts),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft PS JEA)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA Protection Mar 2014)</t>
+    <t>(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft COM ACL),(Citation: Microsoft PS JEA),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: MagicWeb),(Citation: Microsoft System Wide Com Keys),(Citation: Tilbury Windows Credentials),(Citation: FireEye ADFS),(Citation: Microsoft Securing Privileged Access),(Citation: TechNet Credential Theft),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Create Token),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Remote Use of Local),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft Process Wide Com Keys),(Citation: FireEye WMI 2015),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft runas),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: TechNet Least Privilege),(Citation: TechNet Scheduling Priority),(Citation: Kubernetes Admission Controllers),(Citation: Kubernetes Hardening Guide),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Kubernetes Service Accounts)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Configure LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft LSA Protection Mar 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft W32Time May 2017),(Citation: win_xml_evt_log),(Citation: create_sym_links),(Citation: Microsoft ETW May 2018)</t>
+    <t>(Citation: piazza launch agent mitigation),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: win_xml_evt_log),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links)</t>
   </si>
   <si>
     <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
   </si>
   <si>
-    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals)</t>
-  </si>
-  <si>
-    <t>(Citation: NetSPI ClickOnce),(Citation: Microsoft Azure AD Admin Consent)</t>
-  </si>
-  <si>
-    <t>(Citation: ACSC Email Spoofing),(Citation: Google Workspace External Sharing),(Citation: CloudSploit - Unused AWS Regions),(Citation: Wikipedia HPKP),(Citation: Token tactics),(Citation: Enigma Reviving DDE Jan 2018),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: DNS-msft),(Citation: Palo Alto Office Test Sofacy),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Cisco Securing SNMP),(Citation: Microsoft 365 External Sharing),(Citation: Microsoft Anti Spoofing),(Citation: Session Management Cheat Sheet),(Citation: Chromium HSTS),(Citation: Azure Subscription Policies)</t>
-  </si>
-  <si>
-    <t>(Citation: MS14-025),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page),(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Forms),(Citation: Github UACMe)</t>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Azure AD Admin Consent),(Citation: NetSPI ClickOnce)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Workspace External Sharing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Chromium HSTS),(Citation: CloudSploit - Unused AWS Regions),(Citation: Microsoft 365 External Sharing),(Citation: Cisco Securing SNMP),(Citation: Palo Alto Office Test Sofacy),(Citation: Wikipedia HPKP),(Citation: Session Management Cheat Sheet),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: Token tactics),(Citation: Microsoft Anti Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: DNS-msft),(Citation: Azure Subscription Policies),(Citation: GitHub Disable DDEAUTO Oct 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Forms),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Home Page)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: Symantec BITS May 2007),(Citation: Apple TN2459 Kernel Extensions),(Citation: Expel IO Evil in AWS),(Citation: MDMProfileConfigMacOS),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes RBAC),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Office 365 Partner Relationships),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft ETW May 2018),(Citation: Microsoft GPO Security Filtering),(Citation: Wald0 Guide to GPOs),(Citation: Mandiant M-Trends 2020)</t>
+    <t>(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Mandiant M-Trends 2020),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft WMI Filters),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft GPO Security Filtering),(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes RBAC),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft ETW May 2018),(Citation: Symantec BITS May 2007),(Citation: Office 365 Partner Relationships),(Citation: Apple TN2459 Kernel Extensions),(Citation: MDMProfileConfigMacOS),(Citation: Expel IO Evil in AWS),(Citation: Kubernetes Hardening Guide),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
   </si>
   <si>
     <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac),(Citation: Cyber Safety Review Board: Lapsus),(Citation: SWAT-hospital)</t>

--- a/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
+++ b/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
@@ -806,118 +806,118 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>(Citation: Okta Block Anonymizing Services),(Citation: AWS Data Perimeters),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Common Conditional Access Policies),(Citation: Microsoft Developer Support Power Apps Conditional Access)</t>
-  </si>
-  <si>
-    <t>(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft MS14-025),(Citation: AdSecurity DCSync Sept 2015),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: STIG krbtgt reset),(Citation: Microsoft Replication ACL),(Citation: ADSecurity Mimikatz DCSync)</t>
-  </si>
-  <si>
-    <t>(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Microsoft File Folder Exclusions),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Okta DPoP 2023),(Citation: Microsoft Token Protection 2023),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View)</t>
-  </si>
-  <si>
-    <t>(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: AWS DB VPC),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: MagicWeb),(Citation: audits linikatz),(Citation: FireEye ADFS),(Citation: Github UACMe),(Citation: Microsoft Get-InboxRule),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Amazon S3 Security, 2019),(Citation: TCC macOS bypass),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: GitHub Certify),(Citation: Brining MimiKatz to Unix),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: GitHub Bloodhound),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Sxstrace),(Citation: Powersploit),(Citation: Mandiant Azure AD Backdoors),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: AWS Management Account Best Practices),(Citation: GitHub PSPKIAudit),(Citation: Microsoft CreateProcess),(Citation: Mandiant Cloudy Logs 2023),(Citation: Vulnerability and Exploit Detector),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft_rec_block_rules),(Citation: Obfuscated scripts),(Citation: Microsoft ASR Obfuscation),(Citation: win10_asr),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies)</t>
-  </si>
-  <si>
-    <t>(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry),(Citation: applescript signing),(Citation: Microsoft Learn ClickOnce and Authenticode)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Brining MimiKatz to Unix),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
-  </si>
-  <si>
-    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP),(Citation: Rhino S3 Ransomware Part 2)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Learn ClickOnce Config),(Citation: Electron Security 2),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: ITSyndicate Disabling PHP functions),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable Autorun),(Citation: Gmail Delegation),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: TechNet Screensaver GP),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft Network access Credential Manager),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft BEC Campaign),(Citation: Symantec SSH and ssh-agent),(Citation: TechNet Removable Media Control),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable DCOM),(Citation: GitHub MOTW),(Citation: NetSPI ClickOnce),(Citation: Microsoft Disable VBA Jan 2020),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Metcalf 2015),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation)</t>
+    <t>(Citation: Microsoft Common Conditional Access Policies),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Okta Block Anonymizing Services),(Citation: AWS Data Perimeters),(Citation: Google Workspace Apps Script Restrict OAuth Scopes)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MS14-025),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: STIG krbtgt reset),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: Mandiant Defend UNC2452 White Paper)</t>
+  </si>
+  <si>
+    <t>(Citation: SourceForge rkhunter),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft File Folder Exclusions),(Citation: Microsoft AMSI June 2015),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack),(Citation: Apple App Security Overview),(Citation: Okta DPoP 2023),(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack),(Citation: Microsoft Token Protection 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
+  </si>
+  <si>
+    <t>(Citation: MagicWeb),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Get-InboxRule),(Citation: Amazon S3 Security, 2019),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: TCC macOS bypass),(Citation: FireEye ADFS),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft CreateProcess),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Mandiant Azure AD Backdoors),(Citation: Powersploit),(Citation: audits linikatz),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: GitHub Certify),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: GitHub Bloodhound),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Vulnerability and Exploit Detector),(Citation: AWS DB VPC),(Citation: Brining MimiKatz to Unix),(Citation: AWS Management Account Best Practices),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: GitHub PSPKIAudit),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: win10_asr),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center),(Citation: Obfuscated scripts),(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot)</t>
+  </si>
+  <si>
+    <t>(Citation: Content trust in Azure Container Registry),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: applescript signing),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Content trust in Docker)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard),(Citation: Brining MimiKatz to Unix),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Workspace Data Loss Prevention),(Citation: Microsoft Purview Data Loss Prevention)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft DDE Advisory Nov 2017),(Citation: GitHub MOTW),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft Network access Credential Manager),(Citation: Electron Security 2),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft BEC Campaign),(Citation: Microsoft Disable Macros),(Citation: ADSecurity Windows Secure Baseline),(Citation: MRWLabs Office Persistence Add-ins),(Citation: ITSyndicate Disabling PHP functions),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Learn ClickOnce Config),(Citation: TechNet Removable Media Control),(Citation: TechNet Screensaver GP),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Disable VBA Jan 2020),(Citation: NetSPI ClickOnce),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Gmail Delegation),(Citation: Microsoft Disable DCOM),(Citation: Microsoft Disable Autorun),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft AlwaysInstallElevated 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure Storage Security, 2019)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Corio 2008),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Driver Block Rules),(Citation: NSA MS AppLocker),(Citation: Microsoft Windows Defender Application Control),(Citation: Kernel Self Protection Project),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: LKM loading kernel restrictions),(Citation: Increasing Linux kernel integrity),(Citation: Default VBS macros Blocking ),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft Using Software Restriction ),(Citation: Kubernetes Security Context),(Citation: SANS Application Whitelisting),(Citation: Kernel.org Restrict Kernel Module),(Citation: Windows Commands JPCERT),(Citation: Wikibooks Grsecurity),(Citation: Electron Security 3),(Citation: TechNet Applocker vs SRP),(Citation: Beechey 2010),(Citation: Dormann Dangers of VHD 2019),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Application Lockdown),(Citation: Kubernetes Hardening Guide),(Citation: file_upload_attacks_pt2),(Citation: Microsoft WDAC)</t>
-  </si>
-  <si>
-    <t>(Citation: Corio 2008),(Citation: TechNet Applocker vs SRP),(Citation: TechNet Moving Beyond EMET),(Citation: NSA MS AppLocker),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Windows Commands JPCERT),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT APT Energy Oct 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Juniper DAI 2020),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT SMB Security),(Citation: Microsoft SMB Packet Signing),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: ntlm_relaying_kerberos_del),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access),(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect)</t>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Kernel Self Protection Project),(Citation: file_upload_attacks_pt2),(Citation: Windows Commands JPCERT),(Citation: Microsoft Application Lockdown),(Citation: Default VBS macros Blocking ),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: NSA MS AppLocker),(Citation: Microsoft WDAC),(Citation: Beechey 2010),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Security Context),(Citation: Wikibooks Grsecurity),(Citation: Kernel.org Restrict Kernel Module),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: Electron Security 3),(Citation: Microsoft Driver Block Rules),(Citation: Technospot Chrome Extensions GP),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Windows Defender Application Control),(Citation: Increasing Linux kernel integrity),(Citation: Corio 2008)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA MS AppLocker),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP)</t>
+  </si>
+  <si>
+    <t>(Citation: RedLock Instance Metadata API 2018),(Citation: ntlm_relaying_kerberos_del),(Citation: Juniper DAI 2020),(Citation: Secure Ideas SMB Relay),(Citation: CERT-EU DDoS March 2017),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT SMB Security),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Microsoft Preventing SMB),(Citation: US-CERT APT Energy Oct 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: Microsoft AKS Azure AD 2023)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Berkley Secure),(Citation: CISA MFA PrintNightmare),(Citation: Microsoft Nobelium Admin Privileges),(Citation: AWS - IAM Console Best Practices),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft - Device Registration),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Expel IO Evil in AWS),(Citation: Evilginx 2 July 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events),(Citation: Cybereason Dissecting DGAs),(Citation: University of Birmingham C2),(Citation: US-CERT-TA18-106A),(Citation: Anomali Template Injection MAR 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: NSA Spotting),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts)</t>
-  </si>
-  <si>
-    <t>(Citation: Seqrite DoubleExtension),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: reagentc_cmd),(Citation: TechNet RDP NLA),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: Microsoft BITS),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: TechNet Server Operator Scheduled Task),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Tilbury Windows Credentials),(Citation: EnableMPRNotifications),(Citation: Microsoft GPO Bluetooth FEB 2009)</t>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: Berkley Secure),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Evilginx 2 July 2018),(Citation: CISA MFA PrintNightmare),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft - Device Registration)</t>
+  </si>
+  <si>
+    <t>(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: dhcp_serv_op_events),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts)</t>
+  </si>
+  <si>
+    <t>(Citation: UCF STIG Elevation Account Enumeration),(Citation: Apple Developer Doco Hardened Runtime),(Citation: reagentc_cmd),(Citation: Windows RDP Sessions),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: HowToGeek ShowExtension),(Citation: TechNet RDP NLA),(Citation: Microsoft WDigest Mit),(Citation: Tilbury Windows Credentials),(Citation: Microsoft BITS),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Seqrite DoubleExtension),(Citation: EnableMPRNotifications),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: TechNet Removable Media Control),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet Server Operator Scheduled Task)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft COM ACL),(Citation: Microsoft PS JEA),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: MagicWeb),(Citation: Microsoft System Wide Com Keys),(Citation: Tilbury Windows Credentials),(Citation: FireEye ADFS),(Citation: Microsoft Securing Privileged Access),(Citation: TechNet Credential Theft),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Create Token),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Remote Use of Local),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft Process Wide Com Keys),(Citation: FireEye WMI 2015),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft runas),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: TechNet Least Privilege),(Citation: TechNet Scheduling Priority),(Citation: Kubernetes Admission Controllers),(Citation: Kubernetes Hardening Guide),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Kubernetes Service Accounts)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Configure LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft LSA Protection Mar 2014)</t>
+    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc)</t>
+  </si>
+  <si>
+    <t>(Citation: MagicWeb),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Create Token),(Citation: FireEye ADFS),(Citation: Kubernetes Admission Controllers),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft runas),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Securing Privileged Access),(Citation: Tilbury Windows Credentials),(Citation: CyberArk Labs Safe Mode 2016),(Citation: TechNet Credential Theft),(Citation: Kubernetes Service Accounts),(Citation: TechNet Least Privilege),(Citation: Microsoft PS JEA),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft COM ACL),(Citation: Microsoft Process Wide Com Keys),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Scheduling Priority),(Citation: FireEye WMI 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA Protection Mar 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: piazza launch agent mitigation),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: win_xml_evt_log),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals)</t>
+    <t>(Citation: win_xml_evt_log),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: piazza launch agent mitigation),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: create_sym_links),(Citation: Microsoft W32Time May 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent),(Citation: NetSPI ClickOnce)</t>
   </si>
   <si>
-    <t>(Citation: Google Workspace External Sharing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Chromium HSTS),(Citation: CloudSploit - Unused AWS Regions),(Citation: Microsoft 365 External Sharing),(Citation: Cisco Securing SNMP),(Citation: Palo Alto Office Test Sofacy),(Citation: Wikipedia HPKP),(Citation: Session Management Cheat Sheet),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: Token tactics),(Citation: Microsoft Anti Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: DNS-msft),(Citation: Azure Subscription Policies),(Citation: GitHub Disable DDEAUTO Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Forms),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Home Page)</t>
+    <t>(Citation: Wikipedia HPKP),(Citation: Cisco Securing SNMP),(Citation: Session Management Cheat Sheet),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: Token tactics),(Citation: Chromium HSTS),(Citation: Microsoft Anti Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Palo Alto Office Test Sofacy),(Citation: Microsoft 365 External Sharing),(Citation: Google Workspace External Sharing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Azure Subscription Policies),(Citation: DNS-msft),(Citation: CloudSploit - Unused AWS Regions),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: GitHub Disable DDEAUTO Oct 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: Cisco Blog Legacy Device Attacks),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Home Page),(Citation: SensePost Outlook Forms)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Mandiant M-Trends 2020),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft WMI Filters),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft GPO Security Filtering),(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes RBAC),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft ETW May 2018),(Citation: Symantec BITS May 2007),(Citation: Office 365 Partner Relationships),(Citation: Apple TN2459 Kernel Extensions),(Citation: MDMProfileConfigMacOS),(Citation: Expel IO Evil in AWS),(Citation: Kubernetes Hardening Guide),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac),(Citation: Cyber Safety Review Board: Lapsus),(Citation: SWAT-hospital)</t>
+    <t>(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes RBAC),(Citation: Apple TN2459 Kernel Extensions),(Citation: Microsoft ETW May 2018),(Citation: Amazon S3 Security, 2019),(Citation: MDMProfileConfigMacOS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Mandiant M-Trends 2020),(Citation: Expel IO Evil in AWS),(Citation: Office 365 Partner Relationships),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Microsoft GPO Security Filtering),(Citation: Symantec BITS May 2007),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft Azure Storage Security, 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SWAT-hospital),(Citation: Re-Open windows on Mac),(Citation: CISA Phishing),(Citation: Cyber Safety Review Board: Lapsus)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
+++ b/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
@@ -806,118 +806,118 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Common Conditional Access Policies),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Okta Block Anonymizing Services),(Citation: AWS Data Perimeters),(Citation: Google Workspace Apps Script Restrict OAuth Scopes)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MS14-025),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: STIG krbtgt reset),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: Mandiant Defend UNC2452 White Paper)</t>
-  </si>
-  <si>
-    <t>(Citation: SourceForge rkhunter),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft File Folder Exclusions),(Citation: Microsoft AMSI June 2015),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack),(Citation: Apple App Security Overview),(Citation: Okta DPoP 2023),(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack),(Citation: Microsoft Token Protection 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
-  </si>
-  <si>
-    <t>(Citation: MagicWeb),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Get-InboxRule),(Citation: Amazon S3 Security, 2019),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: TCC macOS bypass),(Citation: FireEye ADFS),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft CreateProcess),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Mandiant Azure AD Backdoors),(Citation: Powersploit),(Citation: audits linikatz),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: GitHub Certify),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: GitHub Bloodhound),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Vulnerability and Exploit Detector),(Citation: AWS DB VPC),(Citation: Brining MimiKatz to Unix),(Citation: AWS Management Account Best Practices),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: GitHub PSPKIAudit),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: win10_asr),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center),(Citation: Obfuscated scripts),(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot)</t>
-  </si>
-  <si>
-    <t>(Citation: Content trust in Azure Container Registry),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: applescript signing),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Content trust in Docker)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard),(Citation: Brining MimiKatz to Unix),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Workspace Data Loss Prevention),(Citation: Microsoft Purview Data Loss Prevention)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft DDE Advisory Nov 2017),(Citation: GitHub MOTW),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft Network access Credential Manager),(Citation: Electron Security 2),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft BEC Campaign),(Citation: Microsoft Disable Macros),(Citation: ADSecurity Windows Secure Baseline),(Citation: MRWLabs Office Persistence Add-ins),(Citation: ITSyndicate Disabling PHP functions),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Learn ClickOnce Config),(Citation: TechNet Removable Media Control),(Citation: TechNet Screensaver GP),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Disable VBA Jan 2020),(Citation: NetSPI ClickOnce),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Gmail Delegation),(Citation: Microsoft Disable DCOM),(Citation: Microsoft Disable Autorun),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft AlwaysInstallElevated 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure Storage Security, 2019)</t>
+    <t>(Citation: AWS Data Perimeters),(Citation: Microsoft Common Conditional Access Policies),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Okta Block Anonymizing Services)</t>
+  </si>
+  <si>
+    <t>(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Replication ACL),(Citation: Microsoft MS14-025),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: STIG krbtgt reset),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: ADSecurity Mimikatz DCSync),(Citation: SpecterOps Certified Pre Owned)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft AMSI June 2015),(Citation: SourceForge rkhunter),(Citation: Chkrootkit Main),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft File Folder Exclusions),(Citation: Anomali Template Injection MAR 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Token Protection 2023),(Citation: Bugcrowd Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack),(Citation: Okta DPoP 2023),(Citation: Apple App Security Overview),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: FireEye DLL Side-Loading)</t>
+  </si>
+  <si>
+    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Get-InboxRule),(Citation: GitHub Certify),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: audits linikatz),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Mandiant Cloudy Logs 2023),(Citation: Powersploit),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft CreateProcess),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Brining MimiKatz to Unix),(Citation: Github UACMe),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: GitHub Bloodhound),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: MagicWeb),(Citation: TCC macOS bypass),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: AWS Management Account Best Practices),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Vulnerability and Exploit Detector),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: GitHub PSPKIAudit),(Citation: Mandiant Azure AD Backdoors),(Citation: AWS DB VPC),(Citation: SpecterOps Certified Pre Owned),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Sxstrace),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft ASR Nov 2017),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018),(Citation: win10_asr),(Citation: Obfuscated scripts)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Intel Hardware-based Security Technologies)</t>
+  </si>
+  <si>
+    <t>(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: TechNet Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Brining MimiKatz to Unix)</t>
+  </si>
+  <si>
+    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Network access Credential Manager),(Citation: GitHub MOTW),(Citation: NetSPI ClickOnce),(Citation: Microsoft Disable DCOM),(Citation: TechNet Removable Media Control),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft BEC Campaign),(Citation: Amazon AWS IMDS V2),(Citation: Electron Security 2),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Learn ClickOnce Config),(Citation: ADSecurity Windows Secure Baseline),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable Autorun),(Citation: Microsoft Disable VBA Jan 2020),(Citation: SpecterOps Certified Pre Owned),(Citation: ITSyndicate Disabling PHP functions),(Citation: TechNet Screensaver GP),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Gmail Delegation),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable Macros),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing)</t>
+  </si>
+  <si>
+    <t>(Citation: Metcalf 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: SpecterOps Certified Pre Owned)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Kernel Self Protection Project),(Citation: file_upload_attacks_pt2),(Citation: Windows Commands JPCERT),(Citation: Microsoft Application Lockdown),(Citation: Default VBS macros Blocking ),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: NSA MS AppLocker),(Citation: Microsoft WDAC),(Citation: Beechey 2010),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Security Context),(Citation: Wikibooks Grsecurity),(Citation: Kernel.org Restrict Kernel Module),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: Electron Security 3),(Citation: Microsoft Driver Block Rules),(Citation: Technospot Chrome Extensions GP),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Windows Defender Application Control),(Citation: Increasing Linux kernel integrity),(Citation: Corio 2008)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA MS AppLocker),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP)</t>
-  </si>
-  <si>
-    <t>(Citation: RedLock Instance Metadata API 2018),(Citation: ntlm_relaying_kerberos_del),(Citation: Juniper DAI 2020),(Citation: Secure Ideas SMB Relay),(Citation: CERT-EU DDoS March 2017),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT SMB Security),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Microsoft Preventing SMB),(Citation: US-CERT APT Energy Oct 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: Microsoft AKS Azure AD 2023)</t>
+    <t>(Citation: Windows Commands JPCERT),(Citation: Wikibooks Grsecurity),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: Default VBS macros Blocking ),(Citation: Increasing Linux kernel integrity),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft Using Software Restriction ),(Citation: Beechey 2010),(Citation: LKM loading kernel restrictions),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Application Lockdown),(Citation: Electron Security 3),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Security Context),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Hardening Guide),(Citation: SANS Application Whitelisting),(Citation: Kernel.org Restrict Kernel Module),(Citation: Corio 2008),(Citation: Dormann Dangers of VHD 2019),(Citation: Kernel Self Protection Project),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft WDAC)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Applocker vs SRP),(Citation: Beechey 2010),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET)</t>
+  </si>
+  <si>
+    <t>(Citation: Secure Ideas SMB Relay),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT APT Energy Oct 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: RedLock Instance Metadata API 2018),(Citation: CERT-EU DDoS March 2017),(Citation: Microsoft Preventing SMB),(Citation: US-CERT SMB Security),(Citation: Juniper DAI 2020),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Docker Daemon Socket Protect),(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: Berkley Secure),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Evilginx 2 July 2018),(Citation: CISA MFA PrintNightmare),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft - Device Registration)</t>
-  </si>
-  <si>
-    <t>(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: dhcp_serv_op_events),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts)</t>
-  </si>
-  <si>
-    <t>(Citation: UCF STIG Elevation Account Enumeration),(Citation: Apple Developer Doco Hardened Runtime),(Citation: reagentc_cmd),(Citation: Windows RDP Sessions),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: HowToGeek ShowExtension),(Citation: TechNet RDP NLA),(Citation: Microsoft WDigest Mit),(Citation: Tilbury Windows Credentials),(Citation: Microsoft BITS),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Seqrite DoubleExtension),(Citation: EnableMPRNotifications),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: TechNet Removable Media Control),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet Server Operator Scheduled Task)</t>
+    <t>(Citation: Berkley Secure),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Microsoft - Device Registration),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: CISA MFA PrintNightmare),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Evilginx 2 July 2018),(Citation: Amazon S3 Security, 2019),(Citation: AWS - IAM Console Best Practices)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: dhcp_serv_op_events),(Citation: US-CERT-TA18-106A),(Citation: Anomali Template Injection MAR 2018),(Citation: Akamai DGA Mitigation),(Citation: Cybereason Dissecting DGAs)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft BITS),(Citation: HowToGeek ShowExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Windows RDP Sessions),(Citation: TechNet RDP NLA),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Microsoft WDigest Mit),(Citation: Seqrite DoubleExtension),(Citation: EnableMPRNotifications),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Tilbury Windows Credentials),(Citation: reagentc_cmd)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc)</t>
-  </si>
-  <si>
-    <t>(Citation: MagicWeb),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Create Token),(Citation: FireEye ADFS),(Citation: Kubernetes Admission Controllers),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft runas),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Securing Privileged Access),(Citation: Tilbury Windows Credentials),(Citation: CyberArk Labs Safe Mode 2016),(Citation: TechNet Credential Theft),(Citation: Kubernetes Service Accounts),(Citation: TechNet Least Privilege),(Citation: Microsoft PS JEA),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft COM ACL),(Citation: Microsoft Process Wide Com Keys),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Scheduling Priority),(Citation: FireEye WMI 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA Protection Mar 2014)</t>
+    <t>(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: store_pwd_rev_enc),(Citation: AWS - IAM Console Best Practices),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Replace Process Token),(Citation: Kubernetes Admission Controllers),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Scheduling Priority),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: TechNet Credential Theft),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft Create Token),(Citation: Microsoft runas),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: FireEye ADFS),(Citation: TechNet Least Privilege),(Citation: MagicWeb),(Citation: FireEye WMI 2015),(Citation: Kubernetes Service Accounts),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Remote Use of Local),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Mandiant Azure Run Command 2021),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft PS JEA),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft COM ACL),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Process Wide Com Keys),(Citation: Tilbury Windows Credentials)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA),(Citation: Graeber 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: win_xml_evt_log),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: piazza launch agent mitigation),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: create_sym_links),(Citation: Microsoft W32Time May 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Azure AD Admin Consent),(Citation: NetSPI ClickOnce)</t>
-  </si>
-  <si>
-    <t>(Citation: Wikipedia HPKP),(Citation: Cisco Securing SNMP),(Citation: Session Management Cheat Sheet),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: Token tactics),(Citation: Chromium HSTS),(Citation: Microsoft Anti Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Palo Alto Office Test Sofacy),(Citation: Microsoft 365 External Sharing),(Citation: Google Workspace External Sharing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Azure Subscription Policies),(Citation: DNS-msft),(Citation: CloudSploit - Unused AWS Regions),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: GitHub Disable DDEAUTO Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Github UACMe),(Citation: Cisco Blog Legacy Device Attacks),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Home Page),(Citation: SensePost Outlook Forms)</t>
-  </si>
-  <si>
-    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
-  </si>
-  <si>
-    <t>(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes RBAC),(Citation: Apple TN2459 Kernel Extensions),(Citation: Microsoft ETW May 2018),(Citation: Amazon S3 Security, 2019),(Citation: MDMProfileConfigMacOS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Mandiant M-Trends 2020),(Citation: Expel IO Evil in AWS),(Citation: Office 365 Partner Relationships),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Microsoft GPO Security Filtering),(Citation: Symantec BITS May 2007),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft Azure Storage Security, 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SWAT-hospital),(Citation: Re-Open windows on Mac),(Citation: CISA Phishing),(Citation: Cyber Safety Review Board: Lapsus)</t>
+    <t>(Citation: piazza launch agent mitigation),(Citation: Microsoft W32Time May 2017),(Citation: win_xml_evt_log),(Citation: cisco_deploy_rsa_keys),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft ETW May 2018),(Citation: create_sym_links)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
+  </si>
+  <si>
+    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals)</t>
+  </si>
+  <si>
+    <t>(Citation: NetSPI ClickOnce),(Citation: Microsoft Azure AD Admin Consent)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: DNS-msft),(Citation: Wikipedia HPKP),(Citation: Token tactics),(Citation: ACSC Email Spoofing),(Citation: CloudSploit - Unused AWS Regions),(Citation: Azure Subscription Policies),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft 365 External Sharing),(Citation: Microsoft Anti Spoofing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Session Management Cheat Sheet),(Citation: Cisco Securing SNMP),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: Palo Alto Office Test Sofacy),(Citation: Chromium HSTS),(Citation: Google Workspace External Sharing)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Home Page)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Kubernetes RBAC),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft ETW May 2018),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft GPO Security Filtering),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Expel IO Evil in AWS),(Citation: Symantec BITS May 2007),(Citation: Microsoft WMI Filters),(Citation: Office 365 Partner Relationships),(Citation: Apple TN2459 Kernel Extensions),(Citation: UCF STIG Symbolic Links),(Citation: Mandiant M-Trends 2020),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: MDMProfileConfigMacOS),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Cyber Safety Review Board: Lapsus),(Citation: SWAT-hospital),(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
+++ b/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
@@ -806,118 +806,118 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>(Citation: AWS Data Perimeters),(Citation: Microsoft Common Conditional Access Policies),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Okta Block Anonymizing Services)</t>
-  </si>
-  <si>
-    <t>(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Replication ACL),(Citation: Microsoft MS14-025),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: STIG krbtgt reset),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: ADSecurity Mimikatz DCSync),(Citation: SpecterOps Certified Pre Owned)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft AMSI June 2015),(Citation: SourceForge rkhunter),(Citation: Chkrootkit Main),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft File Folder Exclusions),(Citation: Anomali Template Injection MAR 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Token Protection 2023),(Citation: Bugcrowd Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack),(Citation: Okta DPoP 2023),(Citation: Apple App Security Overview),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: FireEye DLL Side-Loading)</t>
-  </si>
-  <si>
-    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Get-InboxRule),(Citation: GitHub Certify),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: audits linikatz),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Mandiant Cloudy Logs 2023),(Citation: Powersploit),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft CreateProcess),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Brining MimiKatz to Unix),(Citation: Github UACMe),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: GitHub Bloodhound),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: MagicWeb),(Citation: TCC macOS bypass),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: AWS Management Account Best Practices),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Vulnerability and Exploit Detector),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: GitHub PSPKIAudit),(Citation: Mandiant Azure AD Backdoors),(Citation: AWS DB VPC),(Citation: SpecterOps Certified Pre Owned),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Sxstrace),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ASR Nov 2017),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018),(Citation: win10_asr),(Citation: Obfuscated scripts)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Intel Hardware-based Security Technologies)</t>
-  </si>
-  <si>
-    <t>(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: TechNet Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Brining MimiKatz to Unix)</t>
-  </si>
-  <si>
-    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
+    <t>(Citation: Microsoft Common Conditional Access Policies),(Citation: Okta Block Anonymizing Services),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: AWS Data Perimeters)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Netdom Trust Sept 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Mimikatz DCSync),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Replication ACL),(Citation: Microsoft MS14-025),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: STIG krbtgt reset),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity DCSync Sept 2015),(Citation: ADSecurity Kerberos and KRBTGT)</t>
+  </si>
+  <si>
+    <t>(Citation: SourceForge rkhunter),(Citation: Microsoft File Folder Exclusions),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: Okta DPoP 2023),(Citation: Microsoft Token Protection 2023),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
+  </si>
+  <si>
+    <t>(Citation: Kifarunix - Task Scheduling in Linux),(Citation: GitHub PSPKIAudit),(Citation: Brining MimiKatz to Unix),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Microsoft Sxstrace),(Citation: Vulnerability and Exploit Detector),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Mandiant Cloudy Logs 2023),(Citation: GitHub Bloodhound),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Mandiant Azure AD Backdoors),(Citation: audits linikatz),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: AWS DB VPC),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Get-InboxRule),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Github UACMe),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft CreateProcess),(Citation: AWS Management Account Best Practices),(Citation: SpecterOps Certified Pre Owned),(Citation: FireEye ADFS),(Citation: Kubernetes Hardening Guide),(Citation: TCC macOS bypass),(Citation: GitHub Certify),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Powersploit)</t>
+  </si>
+  <si>
+    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Obfuscated scripts),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process)</t>
+  </si>
+  <si>
+    <t>(Citation: applescript signing),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry)</t>
+  </si>
+  <si>
+    <t>(Citation: Brining MimiKatz to Unix),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: GitHub SHB Credential Guard)</t>
+  </si>
+  <si>
+    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Network access Credential Manager),(Citation: GitHub MOTW),(Citation: NetSPI ClickOnce),(Citation: Microsoft Disable DCOM),(Citation: TechNet Removable Media Control),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft BEC Campaign),(Citation: Amazon AWS IMDS V2),(Citation: Electron Security 2),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Learn ClickOnce Config),(Citation: ADSecurity Windows Secure Baseline),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable Autorun),(Citation: Microsoft Disable VBA Jan 2020),(Citation: SpecterOps Certified Pre Owned),(Citation: ITSyndicate Disabling PHP functions),(Citation: TechNet Screensaver GP),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Gmail Delegation),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable Macros),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing)</t>
-  </si>
-  <si>
-    <t>(Citation: Metcalf 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: SpecterOps Certified Pre Owned)</t>
+    <t>(Citation: MRWLabs Office Persistence Add-ins),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable DCOM),(Citation: Microsoft Disable Macros),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft Network access Credential Manager),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft BEC Campaign),(Citation: Amazon AWS IMDS V2),(Citation: Electron Security 2),(Citation: Microsoft Disable Autorun),(Citation: TechNet Removable Media Control),(Citation: NetSPI ClickOnce),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: GitHub MOTW),(Citation: Microsoft Learn ClickOnce Config),(Citation: SpecterOps Certified Pre Owned),(Citation: TechNet Screensaver GP),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Gmail Delegation)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Metcalf 2015),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Windows Commands JPCERT),(Citation: Wikibooks Grsecurity),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: Default VBS macros Blocking ),(Citation: Increasing Linux kernel integrity),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft Using Software Restriction ),(Citation: Beechey 2010),(Citation: LKM loading kernel restrictions),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Application Lockdown),(Citation: Electron Security 3),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Security Context),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Hardening Guide),(Citation: SANS Application Whitelisting),(Citation: Kernel.org Restrict Kernel Module),(Citation: Corio 2008),(Citation: Dormann Dangers of VHD 2019),(Citation: Kernel Self Protection Project),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft WDAC)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Applocker vs SRP),(Citation: Beechey 2010),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET)</t>
-  </si>
-  <si>
-    <t>(Citation: Secure Ideas SMB Relay),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT APT Energy Oct 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: RedLock Instance Metadata API 2018),(Citation: CERT-EU DDoS March 2017),(Citation: Microsoft Preventing SMB),(Citation: US-CERT SMB Security),(Citation: Juniper DAI 2020),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Docker Daemon Socket Protect),(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access)</t>
+    <t>(Citation: Microsoft WDAC),(Citation: Increasing Linux kernel integrity),(Citation: Kernel.org Restrict Kernel Module),(Citation: SANS Application Whitelisting),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: LKM loading kernel restrictions),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Driver Block Rules),(Citation: Default VBS macros Blocking ),(Citation: NSA MS AppLocker),(Citation: Beechey 2010),(Citation: file_upload_attacks_pt2),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Using Software Restriction ),(Citation: Microsoft Application Lockdown),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Windows Defender Application Control),(Citation: Kubernetes Security Context),(Citation: Windows Commands JPCERT),(Citation: Kernel Self Protection Project),(Citation: Wikibooks Grsecurity),(Citation: Electron Security 3),(Citation: Technospot Chrome Extensions GP),(Citation: Corio 2008)</t>
+  </si>
+  <si>
+    <t>(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: Windows Commands JPCERT),(Citation: TechNet Moving Beyond EMET),(Citation: NSA MS AppLocker),(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity)</t>
+  </si>
+  <si>
+    <t>(Citation: ntlm_relaying_kerberos_del),(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft SMB Packet Signing),(Citation: CERT-EU DDoS March 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT APT Energy Oct 2017),(Citation: Juniper DAI 2020),(Citation: Microsoft Preventing SMB),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: US-CERT SMB Security),(Citation: Secure Ideas SMB Relay),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: Kubernetes Cloud Native Security),(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: Berkley Secure),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Microsoft - Device Registration),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: CISA MFA PrintNightmare),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Evilginx 2 July 2018),(Citation: Amazon S3 Security, 2019),(Citation: AWS - IAM Console Best Practices)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: dhcp_serv_op_events),(Citation: US-CERT-TA18-106A),(Citation: Anomali Template Injection MAR 2018),(Citation: Akamai DGA Mitigation),(Citation: Cybereason Dissecting DGAs)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft BITS),(Citation: HowToGeek ShowExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Windows RDP Sessions),(Citation: TechNet RDP NLA),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Microsoft WDigest Mit),(Citation: Seqrite DoubleExtension),(Citation: EnableMPRNotifications),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Tilbury Windows Credentials),(Citation: reagentc_cmd)</t>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Microsoft - Device Registration),(Citation: AWS - IAM Console Best Practices),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Expel IO Evil in AWS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Berkley Secure),(Citation: CISA MFA PrintNightmare),(Citation: Evilginx 2 July 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: dhcp_serv_op_events),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: University of Birmingham C2),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Anomali Template Injection MAR 2018),(Citation: Akamai DGA Mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Removable Media Control),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows RDP Sessions),(Citation: HowToGeek ShowExtension),(Citation: reagentc_cmd),(Citation: Tilbury Windows Credentials),(Citation: EnableMPRNotifications),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Seqrite DoubleExtension),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft WDigest Mit),(Citation: Microsoft BITS),(Citation: TechNet RDP NLA)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: store_pwd_rev_enc),(Citation: AWS - IAM Console Best Practices),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Replace Process Token),(Citation: Kubernetes Admission Controllers),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Scheduling Priority),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: TechNet Credential Theft),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft Create Token),(Citation: Microsoft runas),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: FireEye ADFS),(Citation: TechNet Least Privilege),(Citation: MagicWeb),(Citation: FireEye WMI 2015),(Citation: Kubernetes Service Accounts),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Remote Use of Local),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Mandiant Azure Run Command 2021),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft PS JEA),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft COM ACL),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Process Wide Com Keys),(Citation: Tilbury Windows Credentials)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA),(Citation: Graeber 2014)</t>
+    <t>(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Securing Privileged Access),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: TechNet Least Privilege),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Create Token),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Credential Theft),(Citation: Kubernetes Service Accounts),(Citation: Microsoft runas),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft PS JEA),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft System Wide Com Keys),(Citation: FireEye ADFS),(Citation: FireEye WMI 2015),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Tilbury Windows Credentials),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: TechNet Scheduling Priority),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Replace Process Token),(Citation: Microsoft COM ACL)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA Protection Mar 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: piazza launch agent mitigation),(Citation: Microsoft W32Time May 2017),(Citation: win_xml_evt_log),(Citation: cisco_deploy_rsa_keys),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft ETW May 2018),(Citation: create_sym_links)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
-  </si>
-  <si>
-    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals)</t>
+    <t>(Citation: create_sym_links),(Citation: piazza launch agent mitigation),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: win_xml_evt_log),(Citation: cisco_deploy_rsa_keys)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging)</t>
   </si>
   <si>
     <t>(Citation: NetSPI ClickOnce),(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: DNS-msft),(Citation: Wikipedia HPKP),(Citation: Token tactics),(Citation: ACSC Email Spoofing),(Citation: CloudSploit - Unused AWS Regions),(Citation: Azure Subscription Policies),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft 365 External Sharing),(Citation: Microsoft Anti Spoofing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Session Management Cheat Sheet),(Citation: Cisco Securing SNMP),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: Palo Alto Office Test Sofacy),(Citation: Chromium HSTS),(Citation: Google Workspace External Sharing)</t>
-  </si>
-  <si>
-    <t>(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Home Page)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Kubernetes RBAC),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft ETW May 2018),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft GPO Security Filtering),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Expel IO Evil in AWS),(Citation: Symantec BITS May 2007),(Citation: Microsoft WMI Filters),(Citation: Office 365 Partner Relationships),(Citation: Apple TN2459 Kernel Extensions),(Citation: UCF STIG Symbolic Links),(Citation: Mandiant M-Trends 2020),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: MDMProfileConfigMacOS),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Cyber Safety Review Board: Lapsus),(Citation: SWAT-hospital),(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
+    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Wikipedia HPKP),(Citation: Azure Subscription Policies),(Citation: Palo Alto Office Test Sofacy),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: ACSC Email Spoofing),(Citation: Microsoft Anti Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft 365 External Sharing),(Citation: CloudSploit - Unused AWS Regions),(Citation: Token tactics),(Citation: Google Workspace External Sharing),(Citation: Session Management Cheat Sheet),(Citation: Chromium HSTS),(Citation: Cisco Securing SNMP),(Citation: DNS-msft),(Citation: AWS RE:Inforce Threat Detection 2024)</t>
+  </si>
+  <si>
+    <t>(Citation: MS14-025),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page),(Citation: SensePost Outlook Forms),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco Blog Legacy Device Attacks)</t>
+  </si>
+  <si>
+    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
+  </si>
+  <si>
+    <t>(Citation: Apple TN2459 Kernel Extensions),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Expel IO Evil in AWS),(Citation: Microsoft ETW May 2018),(Citation: Office 365 Partner Relationships),(Citation: Kubernetes RBAC),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: MDMProfileConfigMacOS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft WMI Filters),(Citation: Wald0 Guide to GPOs),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft GPO Security Filtering),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Symantec BITS May 2007)</t>
+  </si>
+  <si>
+    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing),(Citation: SWAT-hospital),(Citation: Cyber Safety Review Board: Lapsus)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
+++ b/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
@@ -806,118 +806,118 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Common Conditional Access Policies),(Citation: Okta Block Anonymizing Services),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: AWS Data Perimeters)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Netdom Trust Sept 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Mimikatz DCSync),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Replication ACL),(Citation: Microsoft MS14-025),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: STIG krbtgt reset),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity DCSync Sept 2015),(Citation: ADSecurity Kerberos and KRBTGT)</t>
-  </si>
-  <si>
-    <t>(Citation: SourceForge rkhunter),(Citation: Microsoft File Folder Exclusions),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: Okta DPoP 2023),(Citation: Microsoft Token Protection 2023),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
-  </si>
-  <si>
-    <t>(Citation: Kifarunix - Task Scheduling in Linux),(Citation: GitHub PSPKIAudit),(Citation: Brining MimiKatz to Unix),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Microsoft Sxstrace),(Citation: Vulnerability and Exploit Detector),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Mandiant Cloudy Logs 2023),(Citation: GitHub Bloodhound),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Mandiant Azure AD Backdoors),(Citation: audits linikatz),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: AWS DB VPC),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Get-InboxRule),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Github UACMe),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft CreateProcess),(Citation: AWS Management Account Best Practices),(Citation: SpecterOps Certified Pre Owned),(Citation: FireEye ADFS),(Citation: Kubernetes Hardening Guide),(Citation: TCC macOS bypass),(Citation: GitHub Certify),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Powersploit)</t>
-  </si>
-  <si>
-    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Obfuscated scripts),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process)</t>
-  </si>
-  <si>
-    <t>(Citation: applescript signing),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry)</t>
-  </si>
-  <si>
-    <t>(Citation: Brining MimiKatz to Unix),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: GitHub SHB Credential Guard)</t>
-  </si>
-  <si>
-    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
+    <t>(Citation: Okta Block Anonymizing Services),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Common Conditional Access Policies),(Citation: AWS Data Perimeters),(Citation: Microsoft Developer Support Power Apps Conditional Access)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Mimikatz DCSync),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft MS14-025),(Citation: Microsoft Replication ACL),(Citation: STIG krbtgt reset),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Trust Considerations Nov 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: SourceForge rkhunter),(Citation: Microsoft File Folder Exclusions),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Chkrootkit Main)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Comparitech Replay Attack),(Citation: Microsoft Token Protection 2023),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Okta DPoP 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft CreateProcess),(Citation: Brining MimiKatz to Unix),(Citation: AWS DB VPC),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: TCC macOS bypass),(Citation: Microsoft Preauthentication Jul 2012),(Citation: GitHub Certify),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Cloudy Logs 2023),(Citation: AWS Management Account Best Practices),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: Microsoft Get-InboxRule),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: MagicWeb),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Kubernetes Hardening Guide),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Powersploit),(Citation: Vulnerability and Exploit Detector),(Citation: GitHub Bloodhound),(Citation: GitHub PSPKIAudit),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: audits linikatz)</t>
+  </si>
+  <si>
+    <t>(Citation: Malicious Driver Reporting Center),(Citation: win10_asr),(Citation: Microsoft ASR Obfuscation),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Obfuscated scripts),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Nov 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: ESET LoJax Sept 2018),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module)</t>
+  </si>
+  <si>
+    <t>(Citation: applescript signing),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Microsoft Learn ClickOnce and Authenticode)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Brining MimiKatz to Unix),(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
   </si>
   <si>
-    <t>(Citation: MRWLabs Office Persistence Add-ins),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable DCOM),(Citation: Microsoft Disable Macros),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft Network access Credential Manager),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft BEC Campaign),(Citation: Amazon AWS IMDS V2),(Citation: Electron Security 2),(Citation: Microsoft Disable Autorun),(Citation: TechNet Removable Media Control),(Citation: NetSPI ClickOnce),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: GitHub MOTW),(Citation: Microsoft Learn ClickOnce Config),(Citation: SpecterOps Certified Pre Owned),(Citation: TechNet Screensaver GP),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Gmail Delegation)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Metcalf 2015),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+    <t>(Citation: Microsoft Disable Macros),(Citation: Microsoft BEC Campaign),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft ADV170021 Dec 2017),(Citation: GitHub MOTW),(Citation: TechNet Removable Media Control),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Network access Credential Manager),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: NetSPI ClickOnce),(Citation: Symantec SSH and ssh-agent),(Citation: Gmail Delegation),(Citation: Microsoft Disable Autorun),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: TechNet Screensaver GP),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Learn ClickOnce Config),(Citation: Electron Security 2),(Citation: MRWLabs Office Persistence Add-ins),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable DCOM)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Primary Refresh Token),(Citation: Amazon S3 Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Metcalf 2015),(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft WDAC),(Citation: Increasing Linux kernel integrity),(Citation: Kernel.org Restrict Kernel Module),(Citation: SANS Application Whitelisting),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: LKM loading kernel restrictions),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Driver Block Rules),(Citation: Default VBS macros Blocking ),(Citation: NSA MS AppLocker),(Citation: Beechey 2010),(Citation: file_upload_attacks_pt2),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Using Software Restriction ),(Citation: Microsoft Application Lockdown),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Windows Defender Application Control),(Citation: Kubernetes Security Context),(Citation: Windows Commands JPCERT),(Citation: Kernel Self Protection Project),(Citation: Wikibooks Grsecurity),(Citation: Electron Security 3),(Citation: Technospot Chrome Extensions GP),(Citation: Corio 2008)</t>
-  </si>
-  <si>
-    <t>(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: Windows Commands JPCERT),(Citation: TechNet Moving Beyond EMET),(Citation: NSA MS AppLocker),(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity)</t>
-  </si>
-  <si>
-    <t>(Citation: ntlm_relaying_kerberos_del),(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft SMB Packet Signing),(Citation: CERT-EU DDoS March 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT APT Energy Oct 2017),(Citation: Juniper DAI 2020),(Citation: Microsoft Preventing SMB),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: US-CERT SMB Security),(Citation: Secure Ideas SMB Relay),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: Kubernetes Cloud Native Security),(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023)</t>
+    <t>(Citation: Electron Security 3),(Citation: LKM loading kernel restrictions),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: TechNet Applocker vs SRP),(Citation: Beechey 2010),(Citation: Kernel.org Restrict Kernel Module),(Citation: Windows Commands JPCERT),(Citation: Kernel Self Protection Project),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: Default VBS macros Blocking ),(Citation: Microsoft WDAC),(Citation: Kubernetes Hardening Guide),(Citation: Corio 2008),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Security Context),(Citation: Microsoft Application Lockdown),(Citation: file_upload_attacks_pt2),(Citation: Wikibooks Grsecurity),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Driver Block Rules)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Applocker vs SRP),(Citation: NSA MS AppLocker),(Citation: Wikipedia Control Flow Integrity),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Secure Host Baseline EMET),(Citation: Windows Commands JPCERT),(Citation: TechNet Moving Beyond EMET)</t>
+  </si>
+  <si>
+    <t>(Citation: byt3bl33d3r NTLM Relaying),(Citation: CERT-EU DDoS March 2017),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT APT Energy Oct 2017),(Citation: US-CERT SMB Security),(Citation: Microsoft SMB Packet Signing),(Citation: Juniper DAI 2020),(Citation: Microsoft Preventing SMB),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: TechNet RDP Gateway)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Microsoft - Device Registration),(Citation: AWS - IAM Console Best Practices),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Expel IO Evil in AWS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Berkley Secure),(Citation: CISA MFA PrintNightmare),(Citation: Evilginx 2 July 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: dhcp_serv_op_events),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: University of Birmingham C2),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Anomali Template Injection MAR 2018),(Citation: Akamai DGA Mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Removable Media Control),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows RDP Sessions),(Citation: HowToGeek ShowExtension),(Citation: reagentc_cmd),(Citation: Tilbury Windows Credentials),(Citation: EnableMPRNotifications),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Seqrite DoubleExtension),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft WDigest Mit),(Citation: Microsoft BITS),(Citation: TechNet RDP NLA)</t>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Amazon S3 Security, 2019),(Citation: CISA MFA PrintNightmare),(Citation: Berkley Secure),(Citation: Evilginx 2 July 2018),(Citation: AWS - IAM Console Best Practices),(Citation: Expel IO Evil in AWS),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Microsoft - Device Registration)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: Akamai DGA Mitigation),(Citation: Anomali Template Injection MAR 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft WDigest Mit),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Windows RDP Sessions),(Citation: HowToGeek ShowExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet RDP NLA),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Tilbury Windows Credentials),(Citation: TechNet Server Operator Scheduled Task),(Citation: Seqrite DoubleExtension),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: reagentc_cmd),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: EnableMPRNotifications),(Citation: Microsoft BITS),(Citation: TechNet Removable Media Control)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Securing Privileged Access),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: TechNet Least Privilege),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Create Token),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Credential Theft),(Citation: Kubernetes Service Accounts),(Citation: Microsoft runas),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft PS JEA),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft System Wide Com Keys),(Citation: FireEye ADFS),(Citation: FireEye WMI 2015),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Tilbury Windows Credentials),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: TechNet Scheduling Priority),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Replace Process Token),(Citation: Microsoft COM ACL)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA Protection Mar 2014)</t>
+    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft COM ACL),(Citation: Microsoft Remote Use of Local),(Citation: Kubernetes Service Accounts),(Citation: Microsoft Replace Process Token),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: FireEye ADFS),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Microsoft runas),(Citation: TechNet Scheduling Priority),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Process Wide Com Keys),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Tilbury Windows Credentials),(Citation: TechNet Least Privilege),(Citation: Microsoft Create Token),(Citation: MagicWeb),(Citation: Microsoft PS JEA),(Citation: Kubernetes Hardening Guide),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Securing Privileged Access),(Citation: FireEye WMI 2015),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: CyberArk Labs Safe Mode 2016),(Citation: TechNet Credential Theft)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: create_sym_links),(Citation: piazza launch agent mitigation),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: win_xml_evt_log),(Citation: cisco_deploy_rsa_keys)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging)</t>
+    <t>(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft ETW May 2018),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft W32Time May 2017),(Citation: piazza launch agent mitigation),(Citation: create_sym_links),(Citation: win_xml_evt_log)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order)</t>
+  </si>
+  <si>
+    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017)</t>
   </si>
   <si>
     <t>(Citation: NetSPI ClickOnce),(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Wikipedia HPKP),(Citation: Azure Subscription Policies),(Citation: Palo Alto Office Test Sofacy),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: ACSC Email Spoofing),(Citation: Microsoft Anti Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft 365 External Sharing),(Citation: CloudSploit - Unused AWS Regions),(Citation: Token tactics),(Citation: Google Workspace External Sharing),(Citation: Session Management Cheat Sheet),(Citation: Chromium HSTS),(Citation: Cisco Securing SNMP),(Citation: DNS-msft),(Citation: AWS RE:Inforce Threat Detection 2024)</t>
-  </si>
-  <si>
-    <t>(Citation: MS14-025),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page),(Citation: SensePost Outlook Forms),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco Blog Legacy Device Attacks)</t>
-  </si>
-  <si>
-    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple TN2459 Kernel Extensions),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Expel IO Evil in AWS),(Citation: Microsoft ETW May 2018),(Citation: Office 365 Partner Relationships),(Citation: Kubernetes RBAC),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: MDMProfileConfigMacOS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft WMI Filters),(Citation: Wald0 Guide to GPOs),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft GPO Security Filtering),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Symantec BITS May 2007)</t>
-  </si>
-  <si>
-    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing),(Citation: SWAT-hospital),(Citation: Cyber Safety Review Board: Lapsus)</t>
+    <t>(Citation: Cisco Securing SNMP),(Citation: Wikipedia HPKP),(Citation: Chromium HSTS),(Citation: Microsoft Anti Spoofing),(Citation: ACSC Email Spoofing),(Citation: Google Workspace External Sharing),(Citation: CloudSploit - Unused AWS Regions),(Citation: DNS-msft),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: Azure Subscription Policies),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: Token tactics),(Citation: Session Management Cheat Sheet),(Citation: Microsoft 365 External Sharing)</t>
+  </si>
+  <si>
+    <t>(Citation: SensePost Outlook Forms),(Citation: MS14-025),(Citation: SensePost Outlook Home Page),(Citation: Cisco Blog Legacy Device Attacks),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: NSA Spotting)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft GPO Security Filtering),(Citation: Office 365 Partner Relationships),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Mandiant M-Trends 2020),(Citation: Wald0 Guide to GPOs),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Kubernetes RBAC),(Citation: MDMProfileConfigMacOS),(Citation: Symantec BITS May 2007),(Citation: Microsoft WMI Filters),(Citation: Expel IO Evil in AWS),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft ETW May 2018),(Citation: Apple TN2459 Kernel Extensions),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Crowdstrike AWS User Federation Persistence)</t>
+  </si>
+  <si>
+    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing),(Citation: Cyber Safety Review Board: Lapsus),(Citation: SWAT-hospital)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
+++ b/versions/v16/docs/enterprise-attack-v16.1/enterprise-attack-v16.1-mitigations.xlsx
@@ -806,118 +806,118 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>(Citation: Okta Block Anonymizing Services),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Common Conditional Access Policies),(Citation: AWS Data Perimeters),(Citation: Microsoft Developer Support Power Apps Conditional Access)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Mimikatz DCSync),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft MS14-025),(Citation: Microsoft Replication ACL),(Citation: STIG krbtgt reset),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Trust Considerations Nov 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: SourceForge rkhunter),(Citation: Microsoft File Folder Exclusions),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Chkrootkit Main)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye DLL Side-Loading),(Citation: Comparitech Replay Attack),(Citation: Microsoft Token Protection 2023),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Okta DPoP 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft CreateProcess),(Citation: Brining MimiKatz to Unix),(Citation: AWS DB VPC),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: TCC macOS bypass),(Citation: Microsoft Preauthentication Jul 2012),(Citation: GitHub Certify),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Cloudy Logs 2023),(Citation: AWS Management Account Best Practices),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: Microsoft Get-InboxRule),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: MagicWeb),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Kubernetes Hardening Guide),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Powersploit),(Citation: Vulnerability and Exploit Detector),(Citation: GitHub Bloodhound),(Citation: GitHub PSPKIAudit),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: audits linikatz)</t>
-  </si>
-  <si>
-    <t>(Citation: Malicious Driver Reporting Center),(Citation: win10_asr),(Citation: Microsoft ASR Obfuscation),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Obfuscated scripts),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Nov 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: ESET LoJax Sept 2018),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module)</t>
-  </si>
-  <si>
-    <t>(Citation: applescript signing),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Microsoft Learn ClickOnce and Authenticode)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Brining MimiKatz to Unix),(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Disable Macros),(Citation: Microsoft BEC Campaign),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft ADV170021 Dec 2017),(Citation: GitHub MOTW),(Citation: TechNet Removable Media Control),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Network access Credential Manager),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: NetSPI ClickOnce),(Citation: Symantec SSH and ssh-agent),(Citation: Gmail Delegation),(Citation: Microsoft Disable Autorun),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: TechNet Screensaver GP),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Learn ClickOnce Config),(Citation: Electron Security 2),(Citation: MRWLabs Office Persistence Add-ins),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable DCOM)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Primary Refresh Token),(Citation: Amazon S3 Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Metcalf 2015),(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+    <t>(Citation: AWS Data Perimeters),(Citation: Okta Block Anonymizing Services),(Citation: Microsoft Common Conditional Access Policies),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Developer Support Power Apps Conditional Access)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Replication ACL),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Protected Users Security Group),(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft MS14-025),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: STIG krbtgt reset),(Citation: Microsoft SID Filtering Quarantining Jan 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft AMSI June 2015),(Citation: Chkrootkit Main),(Citation: Mandiant Cloudy Logs 2023),(Citation: Anomali Template Injection MAR 2018),(Citation: SourceForge rkhunter),(Citation: Microsoft File Folder Exclusions)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Comparitech Replay Attack),(Citation: Okta DPoP 2023),(Citation: Microsoft Token Protection 2023),(Citation: Bugcrowd Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub Bloodhound),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: SpecterOps Certified Pre Owned),(Citation: AWS Management Account Best Practices),(Citation: MagicWeb),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Github UACMe),(Citation: TCC macOS bypass),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Brining MimiKatz to Unix),(Citation: AWS DB VPC),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Sxstrace),(Citation: audits linikatz),(Citation: Microsoft Get-InboxRule),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Mandiant Azure AD Backdoors),(Citation: Amazon S3 Security, 2019),(Citation: GitHub Certify),(Citation: Vulnerability and Exploit Detector),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Microsoft Dynamic-Link Library Security),(Citation: FireEye ADFS),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Powersploit),(Citation: Kubernetes Hardening Guide),(Citation: GitHub PSPKIAudit),(Citation: Microsoft CreateProcess)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft ASR Obfuscation),(Citation: Obfuscated scripts),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft driver block rules),(Citation: win10_asr),(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Malicious Driver Reporting Center)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: TechNet Secure Boot Process),(Citation: Intel Hardware-based Security Technologies),(Citation: ESET LoJax Sept 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Content trust in Docker),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Brining MimiKatz to Unix),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Enable Cred Guard April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Workspace Data Loss Prevention),(Citation: Microsoft Purview Data Loss Prevention)</t>
+  </si>
+  <si>
+    <t>(Citation: Gmail Delegation),(Citation: Symantec SSH and ssh-agent),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft Disable Macros),(Citation: SpecterOps Certified Pre Owned),(Citation: MRWLabs Office Persistence Add-ins),(Citation: GitHub MOTW),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Electron Security 2),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: ITSyndicate Disabling PHP functions),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft BEC Campaign),(Citation: ADSecurity Windows Secure Baseline),(Citation: TechNet Removable Media Control),(Citation: TechNet Screensaver GP),(Citation: NetSPI ClickOnce),(Citation: Microsoft Disable DCOM),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable Autorun),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Learn ClickOnce Config)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Metcalf 2015),(Citation: Microsoft Primary Refresh Token),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Electron Security 3),(Citation: LKM loading kernel restrictions),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: TechNet Applocker vs SRP),(Citation: Beechey 2010),(Citation: Kernel.org Restrict Kernel Module),(Citation: Windows Commands JPCERT),(Citation: Kernel Self Protection Project),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: Default VBS macros Blocking ),(Citation: Microsoft WDAC),(Citation: Kubernetes Hardening Guide),(Citation: Corio 2008),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Security Context),(Citation: Microsoft Application Lockdown),(Citation: file_upload_attacks_pt2),(Citation: Wikibooks Grsecurity),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Driver Block Rules)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Applocker vs SRP),(Citation: NSA MS AppLocker),(Citation: Wikipedia Control Flow Integrity),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Secure Host Baseline EMET),(Citation: Windows Commands JPCERT),(Citation: TechNet Moving Beyond EMET)</t>
-  </si>
-  <si>
-    <t>(Citation: byt3bl33d3r NTLM Relaying),(Citation: CERT-EU DDoS March 2017),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT APT Energy Oct 2017),(Citation: US-CERT SMB Security),(Citation: Microsoft SMB Packet Signing),(Citation: Juniper DAI 2020),(Citation: Microsoft Preventing SMB),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: TechNet RDP Gateway)</t>
+    <t>(Citation: Kubernetes Security Context),(Citation: TechNet Applocker vs SRP),(Citation: Wikibooks Grsecurity),(Citation: LKM loading kernel restrictions),(Citation: NSA MS AppLocker),(Citation: Electron Security 3),(Citation: file_upload_attacks_pt2),(Citation: Windows Commands JPCERT),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Application Lockdown),(Citation: Dormann Dangers of VHD 2019),(Citation: Increasing Linux kernel integrity),(Citation: Kernel.org Restrict Kernel Module),(Citation: Microsoft Windows Defender Application Control),(Citation: Kernel Self Protection Project),(Citation: Microsoft Driver Block Rules),(Citation: SANS Application Whitelisting),(Citation: Microsoft WDAC),(Citation: Microsoft PowerShell CLM),(Citation: Corio 2008),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Using Software Restriction ),(Citation: Default VBS macros Blocking ),(Citation: Kubernetes Hardening Guide),(Citation: Beechey 2010),(Citation: Technospot Chrome Extensions GP)</t>
+  </si>
+  <si>
+    <t>(Citation: Corio 2008),(Citation: TechNet Moving Beyond EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP),(Citation: Windows Commands JPCERT),(Citation: Beechey 2010),(Citation: Secure Host Baseline EMET)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Preventing SMB),(Citation: Juniper DAI 2020),(Citation: US-CERT APT Energy Oct 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: CERT-EU DDoS March 2017),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft SMB Packet Signing),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT SMB Security),(Citation: RedLock Instance Metadata API 2018),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes API Control Access),(Citation: Kubernetes Cloud Native Security),(Citation: Docker Daemon Socket Protect),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: TechNet RDP Gateway)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Amazon S3 Security, 2019),(Citation: CISA MFA PrintNightmare),(Citation: Berkley Secure),(Citation: Evilginx 2 July 2018),(Citation: AWS - IAM Console Best Practices),(Citation: Expel IO Evil in AWS),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Microsoft - Device Registration)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: Akamai DGA Mitigation),(Citation: Anomali Template Injection MAR 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft WDigest Mit),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Windows RDP Sessions),(Citation: HowToGeek ShowExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet RDP NLA),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Tilbury Windows Credentials),(Citation: TechNet Server Operator Scheduled Task),(Citation: Seqrite DoubleExtension),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: reagentc_cmd),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: EnableMPRNotifications),(Citation: Microsoft BITS),(Citation: TechNet Removable Media Control)</t>
+    <t>(Citation: CISA MFA PrintNightmare),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Expel IO Evil in AWS),(Citation: Amazon S3 Security, 2019),(Citation: Berkley Secure),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: AWS - IAM Console Best Practices),(Citation: Evilginx 2 July 2018),(Citation: Microsoft - Device Registration),(Citation: Microsoft Nobelium Admin Privileges)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: Akamai DGA Mitigation),(Citation: Anomali Template Injection MAR 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Firewall Design),(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: UCF STIG Elevation Account Enumeration),(Citation: reagentc_cmd),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet RDP NLA),(Citation: Apple Developer Doco Hardened Runtime),(Citation: HowToGeek ShowExtension),(Citation: TechNet Removable Media Control),(Citation: EnableMPRNotifications),(Citation: Microsoft BITS),(Citation: Seqrite DoubleExtension),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Server Operator Scheduled Task),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Tilbury Windows Credentials)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft COM ACL),(Citation: Microsoft Remote Use of Local),(Citation: Kubernetes Service Accounts),(Citation: Microsoft Replace Process Token),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: FireEye ADFS),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Microsoft runas),(Citation: TechNet Scheduling Priority),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Process Wide Com Keys),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Tilbury Windows Credentials),(Citation: TechNet Least Privilege),(Citation: Microsoft Create Token),(Citation: MagicWeb),(Citation: Microsoft PS JEA),(Citation: Kubernetes Hardening Guide),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Securing Privileged Access),(Citation: FireEye WMI 2015),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: CyberArk Labs Safe Mode 2016),(Citation: TechNet Credential Theft)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft LSA)</t>
+    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Least Privilege),(Citation: Microsoft runas),(Citation: TechNet Credential Theft),(Citation: Microsoft System Wide Com Keys),(Citation: Mandiant Azure Run Command 2021),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Tilbury Windows Credentials),(Citation: MagicWeb),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft COM ACL),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Create Token),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Service Accounts),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft Remote Use of Local),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Replace Process Token),(Citation: FireEye ADFS),(Citation: TechNet Scheduling Priority),(Citation: FireEye WMI 2015),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft PS JEA)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft Configure LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft ETW May 2018),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft W32Time May 2017),(Citation: piazza launch agent mitigation),(Citation: create_sym_links),(Citation: win_xml_evt_log)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order)</t>
+    <t>(Citation: win_xml_evt_log),(Citation: piazza launch agent mitigation),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: create_sym_links),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security)</t>
   </si>
   <si>
     <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017)</t>
   </si>
   <si>
-    <t>(Citation: NetSPI ClickOnce),(Citation: Microsoft Azure AD Admin Consent)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco Securing SNMP),(Citation: Wikipedia HPKP),(Citation: Chromium HSTS),(Citation: Microsoft Anti Spoofing),(Citation: ACSC Email Spoofing),(Citation: Google Workspace External Sharing),(Citation: CloudSploit - Unused AWS Regions),(Citation: DNS-msft),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: Azure Subscription Policies),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: Token tactics),(Citation: Session Management Cheat Sheet),(Citation: Microsoft 365 External Sharing)</t>
-  </si>
-  <si>
-    <t>(Citation: SensePost Outlook Forms),(Citation: MS14-025),(Citation: SensePost Outlook Home Page),(Citation: Cisco Blog Legacy Device Attacks),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: NSA Spotting)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft GPO Security Filtering),(Citation: Office 365 Partner Relationships),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Mandiant M-Trends 2020),(Citation: Wald0 Guide to GPOs),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Kubernetes RBAC),(Citation: MDMProfileConfigMacOS),(Citation: Symantec BITS May 2007),(Citation: Microsoft WMI Filters),(Citation: Expel IO Evil in AWS),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft ETW May 2018),(Citation: Apple TN2459 Kernel Extensions),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Crowdstrike AWS User Federation Persistence)</t>
-  </si>
-  <si>
-    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing),(Citation: Cyber Safety Review Board: Lapsus),(Citation: SWAT-hospital)</t>
+    <t>(Citation: Microsoft Azure AD Admin Consent),(Citation: NetSPI ClickOnce)</t>
+  </si>
+  <si>
+    <t>(Citation: Wikipedia HPKP),(Citation: Chromium HSTS),(Citation: Token tactics),(Citation: CloudSploit - Unused AWS Regions),(Citation: Session Management Cheat Sheet),(Citation: Enigma Reviving DDE Jan 2018),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Palo Alto Office Test Sofacy),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: CyberArk Labs Safe Mode 2016),(Citation: DNS-msft),(Citation: Cisco Securing SNMP),(Citation: Google Workspace External Sharing),(Citation: Microsoft 365 External Sharing),(Citation: ACSC Email Spoofing),(Citation: Microsoft Anti Spoofing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Azure Subscription Policies)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: NSA Spotting),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Home Page),(Citation: SensePost Outlook Forms)</t>
+  </si>
+  <si>
+    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
+  </si>
+  <si>
+    <t>(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Apple TN2459 Kernel Extensions),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Mandiant M-Trends 2020),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Kubernetes RBAC),(Citation: Wald0 Guide to GPOs),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft GPO Security Filtering),(Citation: Microsoft WMI Filters),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Expel IO Evil in AWS),(Citation: Office 365 Partner Relationships),(Citation: Amazon S3 Security, 2019),(Citation: MDMProfileConfigMacOS),(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes Hardening Guide),(Citation: Symantec BITS May 2007),(Citation: Microsoft ETW May 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA Phishing),(Citation: Cyber Safety Review Board: Lapsus),(Citation: SWAT-hospital),(Citation: Re-Open windows on Mac)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>
